--- a/share/doc/validation/SystemValidationData.xlsx
+++ b/share/doc/validation/SystemValidationData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\biogears\core\share\doc\validation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1320" windowWidth="11856" windowHeight="6648" tabRatio="724" activeTab="8"/>
+    <workbookView xWindow="720" yWindow="1320" windowWidth="11850" windowHeight="6645" tabRatio="724" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="Respiratory" sheetId="2" r:id="rId8"/>
     <sheet name="Tissue" sheetId="34" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3522,13 +3527,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4910,7 +4915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4945,7 +4950,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5156,28 +5161,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="74" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" style="73" customWidth="1"/>
     <col min="9" max="9" width="36" style="73" customWidth="1"/>
-    <col min="10" max="11" width="28.88671875" style="74" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="74" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="73"/>
+    <col min="10" max="11" width="28.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="74" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="89" t="s">
         <v>86</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="24">
       <c r="A3" s="89" t="s">
         <v>69</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="89" t="s">
         <v>85</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="24">
       <c r="A5" s="89" t="s">
         <v>793</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="89" t="s">
         <v>994</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="152" t="s">
         <v>961</v>
       </c>
@@ -5385,7 +5390,7 @@
       <c r="K7" s="185"/>
       <c r="L7" s="185"/>
     </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="89" t="s">
         <v>4</v>
       </c>
@@ -5415,7 +5420,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="89" t="s">
         <v>116</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="24">
       <c r="A10" s="89" t="s">
         <v>82</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="27.75" customHeight="1">
       <c r="A11" s="152" t="s">
         <v>623</v>
       </c>
@@ -5501,7 +5506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="27.75" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>81</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="24">
       <c r="A13" s="152" t="s">
         <v>958</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24">
       <c r="A14" s="89" t="s">
         <v>80</v>
       </c>
@@ -5593,7 +5598,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="152" t="s">
         <v>1120</v>
       </c>
@@ -5609,7 +5614,7 @@
       <c r="K15" s="185"/>
       <c r="L15" s="185"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="89" t="s">
         <v>79</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="152" t="s">
         <v>626</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="89" t="s">
         <v>794</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="89" t="s">
         <v>78</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="89" t="s">
         <v>77</v>
       </c>
@@ -5747,7 +5752,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="89" t="s">
         <v>76</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="59" t="s">
         <v>896</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="56.25">
       <c r="A23" s="141" t="s">
         <v>971</v>
       </c>
@@ -5847,7 +5852,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="22.5">
       <c r="A24" s="21" t="s">
         <v>897</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="89" t="s">
         <v>898</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="89" t="s">
         <v>899</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="148" t="s">
         <v>900</v>
       </c>
@@ -5973,7 +5978,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="24">
       <c r="A28" s="89" t="s">
         <v>901</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="60">
       <c r="A29" s="152" t="s">
         <v>962</v>
       </c>
@@ -6029,7 +6034,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="89" t="s">
         <v>902</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="89" t="s">
         <v>903</v>
       </c>
@@ -6089,7 +6094,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="36">
       <c r="A32" s="89" t="s">
         <v>904</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="24">
       <c r="A33" s="89" t="s">
         <v>905</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="24">
       <c r="A34" s="89" t="s">
         <v>906</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="24">
       <c r="A35" s="89" t="s">
         <v>907</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="24">
       <c r="A36" s="89" t="s">
         <v>908</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="89" t="s">
         <v>972</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="36">
       <c r="A38" s="89" t="s">
         <v>909</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="59" t="s">
         <v>64</v>
       </c>
@@ -6351,7 +6356,7 @@
       </c>
       <c r="L39" s="72"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="89" t="s">
         <v>87</v>
       </c>
@@ -6381,7 +6386,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="89" t="s">
         <v>88</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="89" t="s">
         <v>89</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="89" t="s">
         <v>90</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="89" t="s">
         <v>91</v>
       </c>
@@ -6501,7 +6506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="89" t="s">
         <v>92</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="89" t="s">
         <v>93</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="89" t="s">
         <v>94</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="66" t="s">
         <v>382</v>
       </c>
@@ -6627,7 +6632,7 @@
       </c>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="104" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="104" t="s">
         <v>384</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15">
       <c r="A51" s="104" t="s">
         <v>446</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="104" t="s">
         <v>447</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="104" t="s">
         <v>448</v>
       </c>
@@ -6787,7 +6792,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="12.75">
       <c r="A54" s="104" t="s">
         <v>449</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="104" t="s">
         <v>80</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="104" t="s">
         <v>76</v>
       </c>
@@ -6887,7 +6892,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="66" t="s">
         <v>450</v>
       </c>
@@ -6923,7 +6928,7 @@
       </c>
       <c r="L57" s="72"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="104" t="s">
         <v>396</v>
       </c>
@@ -6955,7 +6960,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="104" t="s">
         <v>395</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="104" t="s">
         <v>394</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="104" t="s">
         <v>393</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="104" t="s">
         <v>392</v>
       </c>
@@ -7061,7 +7066,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="104" t="s">
         <v>391</v>
       </c>
@@ -7093,7 +7098,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="104" t="s">
         <v>1010</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="104" t="s">
         <v>390</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="104" t="s">
         <v>389</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="104" t="s">
         <v>388</v>
       </c>
@@ -7216,7 +7221,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="104" t="s">
         <v>1011</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="104" t="s">
         <v>387</v>
       </c>
@@ -7278,7 +7283,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="104" t="s">
         <v>386</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="104" t="s">
         <v>437</v>
       </c>
@@ -7334,769 +7339,769 @@
         <v>969</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="107"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="107"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="107"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="107"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="107"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="107"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="107"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="107"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="107"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="107"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="107"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="107"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="107"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="107"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="107"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="107"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="107"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="107"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="107"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="107"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="107"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="107"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="107"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="107"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="107"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="107"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="107"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="107"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="107"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="107"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="107"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="107"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="107"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="107"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="107"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="107"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="107"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="107"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="107"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="107"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="107"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="107"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="107"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="107"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="107"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="107"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="107"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="107"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="107"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="107"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="107"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="107"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="107"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="107"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="107"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="107"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="107"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="107"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="107"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="107"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="107"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="107"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="107"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="107"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="107"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="107"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="107"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="107"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="107"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="107"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="107"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="107"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="107"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="107"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="107"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="107"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="107"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="107"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="107"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="107"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="107"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="107"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="107"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="107"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="107"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="107"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="107"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="107"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="107"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="107"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="107"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="107"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="107"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="107"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="107"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="107"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="107"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="107"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="107"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="107"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="107"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="107"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="107"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="107"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="107"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="107"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="107"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="107"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="107"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" s="107"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="107"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="107"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="107"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="107"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="107"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" s="107"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="107"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="107"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" s="107"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="107"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="107"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" s="107"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" s="107"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" s="107"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" s="107"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" s="107"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" s="107"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" s="107"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" s="107"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" s="107"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" s="107"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" s="107"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" s="107"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" s="107"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" s="107"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" s="107"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" s="107"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" s="107"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" s="107"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" s="107"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" s="107"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" s="107"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" s="107"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" s="107"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" s="107"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" s="107"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" s="107"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" s="107"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" s="107"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" s="107"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" s="107"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="107"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" s="107"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" s="107"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" s="107"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" s="107"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" s="107"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" s="107"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" s="107"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" s="107"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" s="107"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="107"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" s="107"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" s="107"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" s="107"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" s="107"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" s="107"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" s="107"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" s="107"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" s="107"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" s="107"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" s="107"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" s="107"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" s="107"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" s="107"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" s="107"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" s="107"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" s="107"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" s="107"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" s="107"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" s="107"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" s="107"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" s="107"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" s="107"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" s="107"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" s="107"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" s="107"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" s="107"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" s="107"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" s="107"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" s="107"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" s="107"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" s="107"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" s="107"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" s="107"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" s="107"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" s="107"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="107"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" s="107"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" s="107"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" s="107"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" s="107"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" s="107"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="107"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" s="107"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" s="107"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="107"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" s="107"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" s="107"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" s="107"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" s="107"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" s="107"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" s="107"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" s="107"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" s="107"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" s="107"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" s="107"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" s="107"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" s="107"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" s="107"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" s="107"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" s="107"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" s="107"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" s="107"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" s="107"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" s="107"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" s="107"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" s="107"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" s="107"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" s="107"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" s="107"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" s="107"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" s="107"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" s="107"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1">
       <c r="A308" s="107"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1">
       <c r="A309" s="107"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1">
       <c r="A310" s="107"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" s="107"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" s="107"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" s="107"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" s="107"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1">
       <c r="A315" s="107"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1">
       <c r="A316" s="107"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" s="107"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" s="107"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" s="107"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" s="107"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" s="107"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" s="107"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" s="107"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" s="107"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" s="107"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" s="107"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" s="107"/>
     </row>
   </sheetData>
@@ -8115,29 +8120,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L27" sqref="L27"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="37" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="139" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="74" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="74" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="9"/>
+    <col min="6" max="6" width="21.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="139" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="74" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8180,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A2" s="23" t="s">
         <v>142</v>
       </c>
@@ -8195,7 +8200,7 @@
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36.75" customHeight="1">
       <c r="A3" s="89" t="s">
         <v>140</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="152" t="s">
         <v>911</v>
       </c>
@@ -8257,7 +8262,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="45.75" customHeight="1">
       <c r="A5" s="89" t="s">
         <v>141</v>
       </c>
@@ -8287,7 +8292,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="60">
       <c r="A6" s="23" t="s">
         <v>174</v>
       </c>
@@ -8319,7 +8324,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="36">
       <c r="A7" s="152" t="s">
         <v>888</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="152" t="s">
         <v>889</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="45.75" customHeight="1">
       <c r="A9" s="89" t="s">
         <v>144</v>
       </c>
@@ -8411,7 +8416,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="27.75" customHeight="1">
       <c r="A10" s="89" t="s">
         <v>145</v>
       </c>
@@ -8439,7 +8444,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="74.25" customHeight="1">
       <c r="A11" s="89" t="s">
         <v>146</v>
       </c>
@@ -8468,7 +8473,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="73" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>143</v>
       </c>
@@ -8488,7 +8493,7 @@
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
     </row>
-    <row r="13" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="65.25" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>147</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="152" t="s">
         <v>890</v>
       </c>
@@ -8548,7 +8553,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="40.5" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>148</v>
       </c>
@@ -8580,7 +8585,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="73" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>156</v>
       </c>
@@ -8600,7 +8605,7 @@
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
     </row>
-    <row r="17" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="73" customFormat="1">
       <c r="A17" s="23" t="s">
         <v>157</v>
       </c>
@@ -8620,7 +8625,7 @@
       <c r="K17" s="80"/>
       <c r="L17" s="80"/>
     </row>
-    <row r="18" spans="1:12" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="73" customFormat="1" ht="60">
       <c r="A18" s="89" t="s">
         <v>173</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A19" s="89" t="s">
         <v>206</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A20" s="23" t="s">
         <v>158</v>
       </c>
@@ -8705,7 +8710,7 @@
       <c r="K20" s="80"/>
       <c r="L20" s="80"/>
     </row>
-    <row r="21" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="41.25" customHeight="1">
       <c r="A21" s="89" t="s">
         <v>149</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A22" s="89" t="s">
         <v>184</v>
       </c>
@@ -8769,7 +8774,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="73" customFormat="1">
       <c r="A23" s="89" t="s">
         <v>183</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="73" customFormat="1">
       <c r="A24" s="23" t="s">
         <v>776</v>
       </c>
@@ -8817,7 +8822,7 @@
       <c r="K24" s="80"/>
       <c r="L24" s="80"/>
     </row>
-    <row r="25" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="73" customFormat="1">
       <c r="A25" s="23" t="s">
         <v>777</v>
       </c>
@@ -8837,7 +8842,7 @@
       <c r="K25" s="80"/>
       <c r="L25" s="80"/>
     </row>
-    <row r="26" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="73" customFormat="1">
       <c r="A26" s="89" t="s">
         <v>182</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A27" s="152" t="s">
         <v>912</v>
       </c>
@@ -8899,7 +8904,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="73" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="73" customFormat="1" ht="36">
       <c r="A28" s="152" t="s">
         <v>913</v>
       </c>
@@ -8931,7 +8936,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="73" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="73" customFormat="1" ht="48">
       <c r="A29" s="89" t="s">
         <v>181</v>
       </c>
@@ -8965,7 +8970,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="73" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="73" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="89" t="s">
         <v>180</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="44.25" customHeight="1">
       <c r="A31" s="89" t="s">
         <v>150</v>
       </c>
@@ -9029,7 +9034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="73" customFormat="1">
       <c r="A32" s="59" t="s">
         <v>68</v>
       </c>
@@ -9067,7 +9072,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="24">
       <c r="A33" s="89" t="s">
         <v>627</v>
       </c>
@@ -9097,7 +9102,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="36">
       <c r="A34" s="89" t="s">
         <v>628</v>
       </c>
@@ -9127,7 +9132,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="89" t="s">
         <v>629</v>
       </c>
@@ -9155,7 +9160,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="89" t="s">
         <v>630</v>
       </c>
@@ -9183,7 +9188,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="152" t="s">
         <v>959</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="89" t="s">
         <v>631</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="89" t="s">
         <v>632</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="89" t="s">
         <v>633</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="89" t="s">
         <v>634</v>
       </c>
@@ -9327,7 +9332,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="89" t="s">
         <v>685</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="89" t="s">
         <v>686</v>
       </c>
@@ -9383,7 +9388,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="24">
       <c r="A44" s="89" t="s">
         <v>635</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="89" t="s">
         <v>636</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="36">
       <c r="A46" s="89" t="s">
         <v>637</v>
       </c>
@@ -9471,7 +9476,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="89" t="s">
         <v>688</v>
       </c>
@@ -9499,7 +9504,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="89" t="s">
         <v>688</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="89" t="s">
         <v>687</v>
       </c>
@@ -9555,7 +9560,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="48">
       <c r="A50" s="89" t="s">
         <v>687</v>
       </c>
@@ -9587,7 +9592,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="89" t="s">
         <v>689</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="24">
       <c r="A52" s="89" t="s">
         <v>638</v>
       </c>
@@ -9645,7 +9650,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="24">
       <c r="A53" s="89" t="s">
         <v>639</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="36">
       <c r="A54" s="89" t="s">
         <v>640</v>
       </c>
@@ -9705,7 +9710,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="24">
       <c r="A55" s="89" t="s">
         <v>661</v>
       </c>
@@ -9735,7 +9740,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="89" t="s">
         <v>662</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="24">
       <c r="A57" s="89" t="s">
         <v>663</v>
       </c>
@@ -9793,7 +9798,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="89" t="s">
         <v>664</v>
       </c>
@@ -9821,7 +9826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="24">
       <c r="A59" s="89" t="s">
         <v>665</v>
       </c>
@@ -9851,7 +9856,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="89" t="s">
         <v>666</v>
       </c>
@@ -9879,7 +9884,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="24">
       <c r="A61" s="89" t="s">
         <v>641</v>
       </c>
@@ -9909,7 +9914,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="89" t="s">
         <v>642</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="89" t="s">
         <v>643</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="89" t="s">
         <v>644</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="89" t="s">
         <v>645</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="89" t="s">
         <v>646</v>
       </c>
@@ -10057,7 +10062,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="24">
       <c r="A67" s="89" t="s">
         <v>667</v>
       </c>
@@ -10087,7 +10092,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="89" t="s">
         <v>668</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="89" t="s">
         <v>669</v>
       </c>
@@ -10145,7 +10150,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="89" t="s">
         <v>669</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="24">
       <c r="A71" s="89" t="s">
         <v>670</v>
       </c>
@@ -10205,7 +10210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="89" t="s">
         <v>671</v>
       </c>
@@ -10233,7 +10238,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="89" t="s">
         <v>672</v>
       </c>
@@ -10265,7 +10270,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="24">
       <c r="A74" s="89" t="s">
         <v>673</v>
       </c>
@@ -10295,7 +10300,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="89" t="s">
         <v>674</v>
       </c>
@@ -10323,7 +10328,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="36">
       <c r="A76" s="89" t="s">
         <v>675</v>
       </c>
@@ -10355,7 +10360,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="36">
       <c r="A77" s="89" t="s">
         <v>647</v>
       </c>
@@ -10385,7 +10390,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="60">
       <c r="A78" s="89" t="s">
         <v>676</v>
       </c>
@@ -10415,7 +10420,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="24">
       <c r="A79" s="89" t="s">
         <v>676</v>
       </c>
@@ -10443,7 +10448,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="36">
       <c r="A80" s="89" t="s">
         <v>677</v>
       </c>
@@ -10473,7 +10478,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="89" t="s">
         <v>677</v>
       </c>
@@ -10501,7 +10506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="89" t="s">
         <v>678</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="24">
       <c r="A83" s="89" t="s">
         <v>648</v>
       </c>
@@ -10559,7 +10564,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="24">
       <c r="A84" s="89" t="s">
         <v>649</v>
       </c>
@@ -10589,7 +10594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="36">
       <c r="A85" s="89" t="s">
         <v>650</v>
       </c>
@@ -10619,7 +10624,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="24">
       <c r="A86" s="89" t="s">
         <v>679</v>
       </c>
@@ -10649,7 +10654,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="89" t="s">
         <v>680</v>
       </c>
@@ -10677,7 +10682,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="24">
       <c r="A88" s="89" t="s">
         <v>681</v>
       </c>
@@ -10707,7 +10712,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="89" t="s">
         <v>682</v>
       </c>
@@ -10735,7 +10740,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="24">
       <c r="A90" s="89" t="s">
         <v>683</v>
       </c>
@@ -10765,7 +10770,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="89" t="s">
         <v>684</v>
       </c>
@@ -10793,7 +10798,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="24">
       <c r="A92" s="89" t="s">
         <v>651</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="89" t="s">
         <v>652</v>
       </c>
@@ -10851,7 +10856,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="89" t="s">
         <v>653</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="89" t="s">
         <v>654</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="89" t="s">
         <v>655</v>
       </c>
@@ -10935,7 +10940,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="89" t="s">
         <v>656</v>
       </c>
@@ -10965,7 +10970,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="89" t="s">
         <v>657</v>
       </c>
@@ -10993,7 +10998,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="89" t="s">
         <v>658</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="24">
       <c r="A100" s="89" t="s">
         <v>659</v>
       </c>
@@ -11051,7 +11056,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="89" t="s">
         <v>660</v>
       </c>
@@ -11079,16 +11084,16 @@
         <v>969</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="F102" s="36"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="F103" s="36"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="E104" s="36"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="E105" s="36"/>
     </row>
   </sheetData>
@@ -11105,26 +11110,26 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="27"/>
-    <col min="5" max="6" width="17.33203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="73" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="73" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="73"/>
+    <col min="1" max="1" width="20.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="5" max="6" width="17.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="73" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="73" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -11162,7 +11167,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="72">
       <c r="A2" s="50" t="s">
         <v>176</v>
       </c>
@@ -11192,7 +11197,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36">
       <c r="A3" s="50" t="s">
         <v>979</v>
       </c>
@@ -11231,26 +11236,26 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="13"/>
-    <col min="11" max="11" width="8.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="11" max="11" width="8.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -11288,7 +11293,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="81" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="81" customFormat="1" ht="24">
       <c r="A2" s="23" t="s">
         <v>550</v>
       </c>
@@ -11308,7 +11313,7 @@
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="29" t="s">
         <v>160</v>
       </c>
@@ -11335,7 +11340,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="23" t="s">
         <v>991</v>
       </c>
@@ -11365,7 +11370,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="81" customFormat="1">
       <c r="A5" s="23" t="s">
         <v>552</v>
       </c>
@@ -11385,7 +11390,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" s="81" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="81" customFormat="1" ht="24">
       <c r="A6" s="23" t="s">
         <v>427</v>
       </c>
@@ -11405,7 +11410,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="29" t="s">
         <v>37</v>
       </c>
@@ -11461,7 +11466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="29" t="s">
         <v>162</v>
       </c>
@@ -11489,7 +11494,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="15" customFormat="1">
       <c r="A10" s="23" t="s">
         <v>163</v>
       </c>
@@ -11509,7 +11514,7 @@
       <c r="K10" s="80"/>
       <c r="L10" s="80"/>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="15" customFormat="1">
       <c r="A11" s="29" t="s">
         <v>175</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="81" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>554</v>
       </c>
@@ -11557,7 +11562,7 @@
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
     </row>
-    <row r="13" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="23" t="s">
         <v>1012</v>
       </c>
@@ -11575,7 +11580,7 @@
       <c r="K13" s="185"/>
       <c r="L13" s="185"/>
     </row>
-    <row r="14" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="23" t="s">
         <v>1013</v>
       </c>
@@ -11593,7 +11598,7 @@
       <c r="K14" s="185"/>
       <c r="L14" s="185"/>
     </row>
-    <row r="15" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="23" t="s">
         <v>1014</v>
       </c>
@@ -11611,9 +11616,9 @@
       <c r="K15" s="185"/>
       <c r="L15" s="185"/>
     </row>
-    <row r="16" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="81" customFormat="1"/>
+    <row r="17" s="81" customFormat="1"/>
+    <row r="18" s="81" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11631,24 +11636,24 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="73" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="73" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="73" customWidth="1"/>
     <col min="6" max="6" width="12" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="110" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="73"/>
+    <col min="7" max="7" width="5.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="110" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -11686,7 +11691,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
         <v>996</v>
       </c>
@@ -11729,21 +11734,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="27"/>
-    <col min="5" max="6" width="17.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="27" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="27"/>
-    <col min="11" max="11" width="28.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="27"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="5" max="6" width="17.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="27" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="27"/>
+    <col min="11" max="11" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -11781,7 +11786,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
         <v>873</v>
       </c>
@@ -11797,7 +11802,7 @@
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
         <v>876</v>
       </c>
@@ -11813,7 +11818,7 @@
       <c r="K3" s="80"/>
       <c r="L3" s="80"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>875</v>
       </c>
@@ -11829,7 +11834,7 @@
       <c r="K4" s="185"/>
       <c r="L4" s="185"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>874</v>
       </c>
@@ -11845,7 +11850,7 @@
       <c r="K5" s="185"/>
       <c r="L5" s="185"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>956</v>
       </c>
@@ -11861,7 +11866,7 @@
       <c r="K6" s="185"/>
       <c r="L6" s="185"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>957</v>
       </c>
@@ -11886,29 +11891,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L413"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="111" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="111" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="73" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="111" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="73" customWidth="1"/>
     <col min="7" max="7" width="40" style="73" customWidth="1"/>
-    <col min="8" max="8" width="41.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="73"/>
+    <col min="8" max="8" width="41.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -11946,7 +11951,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="152" t="s">
         <v>187</v>
       </c>
@@ -11976,7 +11981,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="152" t="s">
         <v>185</v>
       </c>
@@ -12006,7 +12011,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="24">
       <c r="A4" s="152" t="s">
         <v>189</v>
       </c>
@@ -12036,7 +12041,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="152" t="s">
         <v>188</v>
       </c>
@@ -12068,7 +12073,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="24">
       <c r="A6" s="152" t="s">
         <v>353</v>
       </c>
@@ -12100,7 +12105,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="24">
       <c r="A7" s="23" t="s">
         <v>213</v>
       </c>
@@ -12129,7 +12134,7 @@
       <c r="K7" s="185"/>
       <c r="L7" s="185"/>
     </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="152" t="s">
         <v>214</v>
       </c>
@@ -12159,7 +12164,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="152" t="s">
         <v>215</v>
       </c>
@@ -12189,7 +12194,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="152" t="s">
         <v>212</v>
       </c>
@@ -12219,7 +12224,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="24">
       <c r="A11" s="152" t="s">
         <v>216</v>
       </c>
@@ -12247,7 +12252,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="23" t="s">
         <v>217</v>
       </c>
@@ -12265,7 +12270,7 @@
       <c r="K12" s="185"/>
       <c r="L12" s="185"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="152" t="s">
         <v>222</v>
       </c>
@@ -12295,7 +12300,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="152" t="s">
         <v>452</v>
       </c>
@@ -12327,7 +12332,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="152" t="s">
         <v>290</v>
       </c>
@@ -12357,7 +12362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="152" t="s">
         <v>291</v>
       </c>
@@ -12387,7 +12392,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="24">
       <c r="A17" s="94" t="s">
         <v>453</v>
       </c>
@@ -12419,7 +12424,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="94" t="s">
         <v>380</v>
       </c>
@@ -12449,7 +12454,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="152" t="s">
         <v>292</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="152" t="s">
         <v>293</v>
       </c>
@@ -12509,7 +12514,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="152" t="s">
         <v>294</v>
       </c>
@@ -12541,7 +12546,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="152" t="s">
         <v>295</v>
       </c>
@@ -12573,7 +12578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="36">
       <c r="A23" s="152" t="s">
         <v>296</v>
       </c>
@@ -12605,7 +12610,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="24">
       <c r="A24" s="23" t="s">
         <v>347</v>
       </c>
@@ -12633,7 +12638,7 @@
       <c r="K24" s="185"/>
       <c r="L24" s="185"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="152" t="s">
         <v>297</v>
       </c>
@@ -12663,7 +12668,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="152" t="s">
         <v>299</v>
       </c>
@@ -12693,7 +12698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="152" t="s">
         <v>997</v>
       </c>
@@ -12723,7 +12728,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12" customHeight="1">
       <c r="A28" s="152" t="s">
         <v>300</v>
       </c>
@@ -12753,7 +12758,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="152" t="s">
         <v>301</v>
       </c>
@@ -12785,7 +12790,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="152" t="s">
         <v>359</v>
       </c>
@@ -12817,7 +12822,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="23" t="s">
         <v>356</v>
       </c>
@@ -12845,7 +12850,7 @@
       <c r="K31" s="185"/>
       <c r="L31" s="185"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="24">
       <c r="A32" s="23" t="s">
         <v>350</v>
       </c>
@@ -12873,7 +12878,7 @@
       <c r="K32" s="185"/>
       <c r="L32" s="185"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="23" t="s">
         <v>792</v>
       </c>
@@ -12901,7 +12906,7 @@
       <c r="K33" s="185"/>
       <c r="L33" s="185"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="152" t="s">
         <v>302</v>
       </c>
@@ -12931,7 +12936,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="152" t="s">
         <v>454</v>
       </c>
@@ -12963,7 +12968,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="152" t="s">
         <v>303</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="152" t="s">
         <v>304</v>
       </c>
@@ -13023,7 +13028,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="24">
       <c r="A38" s="94" t="s">
         <v>455</v>
       </c>
@@ -13055,7 +13060,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="94" t="s">
         <v>381</v>
       </c>
@@ -13085,7 +13090,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="152" t="s">
         <v>305</v>
       </c>
@@ -13115,7 +13120,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="152" t="s">
         <v>306</v>
       </c>
@@ -13145,7 +13150,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="152" t="s">
         <v>307</v>
       </c>
@@ -13177,7 +13182,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="152" t="s">
         <v>308</v>
       </c>
@@ -13209,7 +13214,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="36">
       <c r="A44" s="152" t="s">
         <v>309</v>
       </c>
@@ -13241,7 +13246,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="24">
       <c r="A45" s="23" t="s">
         <v>346</v>
       </c>
@@ -13269,7 +13274,7 @@
       <c r="K45" s="185"/>
       <c r="L45" s="185"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="152" t="s">
         <v>310</v>
       </c>
@@ -13299,7 +13304,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="152" t="s">
         <v>311</v>
       </c>
@@ -13329,7 +13334,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="152" t="s">
         <v>998</v>
       </c>
@@ -13359,7 +13364,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="12" customHeight="1">
       <c r="A49" s="152" t="s">
         <v>312</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="152" t="s">
         <v>313</v>
       </c>
@@ -13421,7 +13426,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="152" t="s">
         <v>360</v>
       </c>
@@ -13453,7 +13458,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="23" t="s">
         <v>358</v>
       </c>
@@ -13479,7 +13484,7 @@
       <c r="K52" s="185"/>
       <c r="L52" s="185"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="24">
       <c r="A53" s="23" t="s">
         <v>349</v>
       </c>
@@ -13507,7 +13512,7 @@
       <c r="K53" s="185"/>
       <c r="L53" s="185"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="23" t="s">
         <v>791</v>
       </c>
@@ -13535,7 +13540,7 @@
       <c r="K54" s="185"/>
       <c r="L54" s="185"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="152" t="s">
         <v>314</v>
       </c>
@@ -13565,7 +13570,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="59" t="s">
         <v>68</v>
       </c>
@@ -13603,7 +13608,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" customHeight="1">
       <c r="A57" s="152" t="s">
         <v>732</v>
       </c>
@@ -13635,7 +13640,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="48">
       <c r="A58" s="152" t="s">
         <v>733</v>
       </c>
@@ -13665,7 +13670,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="48">
       <c r="A59" s="152" t="s">
         <v>734</v>
       </c>
@@ -13695,7 +13700,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="48">
       <c r="A60" s="152" t="s">
         <v>735</v>
       </c>
@@ -13725,7 +13730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="48">
       <c r="A61" s="152" t="s">
         <v>736</v>
       </c>
@@ -13755,7 +13760,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="48">
       <c r="A62" s="152" t="s">
         <v>737</v>
       </c>
@@ -13785,7 +13790,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="48">
       <c r="A63" s="152" t="s">
         <v>738</v>
       </c>
@@ -13815,7 +13820,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="48">
       <c r="A64" s="152" t="s">
         <v>722</v>
       </c>
@@ -13845,7 +13850,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="48">
       <c r="A65" s="152" t="s">
         <v>723</v>
       </c>
@@ -13875,7 +13880,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="36">
       <c r="A66" s="152" t="s">
         <v>724</v>
       </c>
@@ -13907,7 +13912,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="36">
       <c r="A67" s="152" t="s">
         <v>739</v>
       </c>
@@ -13939,7 +13944,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="48">
       <c r="A68" s="152" t="s">
         <v>740</v>
       </c>
@@ -13969,7 +13974,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="48">
       <c r="A69" s="152" t="s">
         <v>741</v>
       </c>
@@ -13999,7 +14004,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="48">
       <c r="A70" s="152" t="s">
         <v>742</v>
       </c>
@@ -14029,7 +14034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="48">
       <c r="A71" s="152" t="s">
         <v>743</v>
       </c>
@@ -14059,7 +14064,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="48">
       <c r="A72" s="152" t="s">
         <v>744</v>
       </c>
@@ -14089,7 +14094,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="48">
       <c r="A73" s="152" t="s">
         <v>745</v>
       </c>
@@ -14119,7 +14124,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="48">
       <c r="A74" s="152" t="s">
         <v>725</v>
       </c>
@@ -14149,7 +14154,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="48">
       <c r="A75" s="152" t="s">
         <v>726</v>
       </c>
@@ -14179,7 +14184,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="36">
       <c r="A76" s="152" t="s">
         <v>727</v>
       </c>
@@ -14209,7 +14214,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="152" t="s">
         <v>746</v>
       </c>
@@ -14241,7 +14246,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="152" t="s">
         <v>747</v>
       </c>
@@ -14273,7 +14278,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="152" t="s">
         <v>748</v>
       </c>
@@ -14305,7 +14310,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="152" t="s">
         <v>749</v>
       </c>
@@ -14337,7 +14342,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="152" t="s">
         <v>750</v>
       </c>
@@ -14369,7 +14374,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="113" t="s">
         <v>751</v>
       </c>
@@ -14400,7 +14405,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="152" t="s">
         <v>728</v>
       </c>
@@ -14432,7 +14437,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="152" t="s">
         <v>789</v>
       </c>
@@ -14462,7 +14467,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="152" t="s">
         <v>752</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="152" t="s">
         <v>753</v>
       </c>
@@ -14526,7 +14531,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="152" t="s">
         <v>754</v>
       </c>
@@ -14558,7 +14563,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="152" t="s">
         <v>755</v>
       </c>
@@ -14590,7 +14595,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="152" t="s">
         <v>756</v>
       </c>
@@ -14622,7 +14627,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="152" t="s">
         <v>757</v>
       </c>
@@ -14654,7 +14659,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="152" t="s">
         <v>729</v>
       </c>
@@ -14686,7 +14691,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="152" t="s">
         <v>790</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="152" t="s">
         <v>758</v>
       </c>
@@ -14748,7 +14753,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="152" t="s">
         <v>730</v>
       </c>
@@ -14778,7 +14783,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="152" t="s">
         <v>759</v>
       </c>
@@ -14810,7 +14815,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="152" t="s">
         <v>731</v>
       </c>
@@ -14840,7 +14845,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="24">
       <c r="A97" s="152" t="s">
         <v>973</v>
       </c>
@@ -14873,7 +14878,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="24">
       <c r="A98" s="152" t="s">
         <v>712</v>
       </c>
@@ -14905,7 +14910,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="24">
       <c r="A99" s="152" t="s">
         <v>713</v>
       </c>
@@ -14939,7 +14944,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="24">
       <c r="A100" s="152" t="s">
         <v>714</v>
       </c>
@@ -14971,7 +14976,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="24">
       <c r="A101" s="152" t="s">
         <v>715</v>
       </c>
@@ -15003,7 +15008,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="36">
       <c r="A102" s="152" t="s">
         <v>716</v>
       </c>
@@ -15035,7 +15040,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="24">
       <c r="A103" s="152" t="s">
         <v>717</v>
       </c>
@@ -15067,7 +15072,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="24">
       <c r="A104" s="152" t="s">
         <v>718</v>
       </c>
@@ -15099,7 +15104,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="24">
       <c r="A105" s="152" t="s">
         <v>719</v>
       </c>
@@ -15135,7 +15140,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="24">
       <c r="A106" s="152" t="s">
         <v>720</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="152" t="s">
         <v>721</v>
       </c>
@@ -15197,7 +15202,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="59" t="s">
         <v>223</v>
       </c>
@@ -15235,7 +15240,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="36">
       <c r="A109" s="152" t="s">
         <v>974</v>
       </c>
@@ -15267,7 +15272,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="24">
       <c r="A110" s="152" t="s">
         <v>999</v>
       </c>
@@ -15301,7 +15306,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="24">
       <c r="A111" s="152" t="s">
         <v>930</v>
       </c>
@@ -15329,7 +15334,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="36">
       <c r="A112" s="152" t="s">
         <v>1000</v>
       </c>
@@ -15363,7 +15368,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="152" t="s">
         <v>931</v>
       </c>
@@ -15395,7 +15400,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="152" t="s">
         <v>932</v>
       </c>
@@ -15427,7 +15432,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="152" t="s">
         <v>933</v>
       </c>
@@ -15459,7 +15464,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="36">
       <c r="A116" s="152" t="s">
         <v>1001</v>
       </c>
@@ -15491,7 +15496,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="24">
       <c r="A117" s="152" t="s">
         <v>934</v>
       </c>
@@ -15523,7 +15528,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="152" t="s">
         <v>935</v>
       </c>
@@ -15555,7 +15560,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="24">
       <c r="A119" s="152" t="s">
         <v>936</v>
       </c>
@@ -15587,7 +15592,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="36">
       <c r="A120" s="152" t="s">
         <v>1002</v>
       </c>
@@ -15619,7 +15624,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="24">
       <c r="A121" s="152" t="s">
         <v>937</v>
       </c>
@@ -15651,7 +15656,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="24">
       <c r="A122" s="152" t="s">
         <v>938</v>
       </c>
@@ -15683,7 +15688,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="152" t="s">
         <v>939</v>
       </c>
@@ -15715,7 +15720,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="48">
       <c r="A124" s="152" t="s">
         <v>1003</v>
       </c>
@@ -15747,7 +15752,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="24">
       <c r="A125" s="152" t="s">
         <v>940</v>
       </c>
@@ -15779,7 +15784,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="152" t="s">
         <v>941</v>
       </c>
@@ -15811,7 +15816,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="152" t="s">
         <v>942</v>
       </c>
@@ -15838,7 +15843,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="152" t="s">
         <v>943</v>
       </c>
@@ -15870,7 +15875,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="24">
       <c r="A129" s="152" t="s">
         <v>944</v>
       </c>
@@ -15899,7 +15904,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36">
       <c r="A130" s="152" t="s">
         <v>1004</v>
       </c>
@@ -15929,7 +15934,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="36">
       <c r="A131" s="152" t="s">
         <v>1005</v>
       </c>
@@ -15961,7 +15966,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="152" t="s">
         <v>945</v>
       </c>
@@ -15993,7 +15998,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="152" t="s">
         <v>946</v>
       </c>
@@ -16025,7 +16030,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="152" t="s">
         <v>947</v>
       </c>
@@ -16052,7 +16057,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="152" t="s">
         <v>948</v>
       </c>
@@ -16084,7 +16089,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="36">
       <c r="A136" s="152" t="s">
         <v>1006</v>
       </c>
@@ -16116,7 +16121,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="152" t="s">
         <v>949</v>
       </c>
@@ -16148,7 +16153,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="152" t="s">
         <v>950</v>
       </c>
@@ -16180,7 +16185,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="152" t="s">
         <v>951</v>
       </c>
@@ -16207,7 +16212,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="152" t="s">
         <v>952</v>
       </c>
@@ -16239,7 +16244,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="36">
       <c r="A141" s="152" t="s">
         <v>1007</v>
       </c>
@@ -16271,7 +16276,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="152" t="s">
         <v>953</v>
       </c>
@@ -16301,7 +16306,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="152" t="s">
         <v>954</v>
       </c>
@@ -16331,7 +16336,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="152" t="s">
         <v>955</v>
       </c>
@@ -16363,7 +16368,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A145" s="12" t="s">
         <v>478</v>
       </c>
@@ -16401,7 +16406,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A146" s="104" t="s">
         <v>480</v>
       </c>
@@ -16429,7 +16434,7 @@
       </c>
       <c r="L146" s="185"/>
     </row>
-    <row r="147" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A147" s="104" t="s">
         <v>481</v>
       </c>
@@ -16449,7 +16454,7 @@
       </c>
       <c r="L147" s="185"/>
     </row>
-    <row r="148" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A148" s="104" t="s">
         <v>388</v>
       </c>
@@ -16477,7 +16482,7 @@
       </c>
       <c r="L148" s="185"/>
     </row>
-    <row r="149" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A149" s="104" t="s">
         <v>482</v>
       </c>
@@ -16505,7 +16510,7 @@
       </c>
       <c r="L149" s="185"/>
     </row>
-    <row r="150" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A150" s="104" t="s">
         <v>486</v>
       </c>
@@ -16525,7 +16530,7 @@
       </c>
       <c r="L150" s="185"/>
     </row>
-    <row r="151" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A151" s="104" t="s">
         <v>483</v>
       </c>
@@ -16559,7 +16564,7 @@
       </c>
       <c r="L151" s="185"/>
     </row>
-    <row r="152" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A152" s="104" t="s">
         <v>484</v>
       </c>
@@ -16587,7 +16592,7 @@
       </c>
       <c r="L152" s="185"/>
     </row>
-    <row r="153" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A153" s="104" t="s">
         <v>487</v>
       </c>
@@ -16607,7 +16612,7 @@
       </c>
       <c r="L153" s="185"/>
     </row>
-    <row r="154" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A154" s="104" t="s">
         <v>485</v>
       </c>
@@ -16635,7 +16640,7 @@
       </c>
       <c r="L154" s="185"/>
     </row>
-    <row r="155" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A155" s="104" t="s">
         <v>488</v>
       </c>
@@ -16655,7 +16660,7 @@
       </c>
       <c r="L155" s="185"/>
     </row>
-    <row r="156" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A156" s="104" t="s">
         <v>489</v>
       </c>
@@ -16675,7 +16680,7 @@
       </c>
       <c r="L156" s="185"/>
     </row>
-    <row r="157" spans="1:12" s="81" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" s="81" customFormat="1" ht="15">
       <c r="A157" s="104" t="s">
         <v>490</v>
       </c>
@@ -16695,84 +16700,84 @@
       </c>
       <c r="L157" s="185"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="107"/>
       <c r="B158" s="73"/>
       <c r="C158" s="73"/>
       <c r="D158" s="73"/>
       <c r="E158" s="73"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="107"/>
       <c r="B159" s="73"/>
       <c r="C159" s="73"/>
       <c r="D159" s="73"/>
       <c r="E159" s="73"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="107"/>
       <c r="B160" s="73"/>
       <c r="C160" s="73"/>
       <c r="D160" s="73"/>
       <c r="E160" s="73"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="107"/>
       <c r="B161" s="73"/>
       <c r="C161" s="73"/>
       <c r="D161" s="73"/>
       <c r="E161" s="73"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="107"/>
       <c r="B162" s="73"/>
       <c r="C162" s="73"/>
       <c r="D162" s="73"/>
       <c r="E162" s="73"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="107"/>
       <c r="B163" s="73"/>
       <c r="C163" s="73"/>
       <c r="D163" s="73"/>
       <c r="E163" s="73"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="107"/>
       <c r="B164" s="73"/>
       <c r="C164" s="73"/>
       <c r="D164" s="73"/>
       <c r="E164" s="73"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="107"/>
       <c r="B165" s="73"/>
       <c r="C165" s="73"/>
       <c r="D165" s="73"/>
       <c r="E165" s="73"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="107"/>
       <c r="B166" s="73"/>
       <c r="C166" s="73"/>
       <c r="D166" s="73"/>
       <c r="E166" s="73"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="107"/>
       <c r="B167" s="73"/>
       <c r="C167" s="73"/>
       <c r="D167" s="73"/>
       <c r="E167" s="73"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="107"/>
       <c r="B168" s="73"/>
       <c r="C168" s="73"/>
       <c r="D168" s="73"/>
       <c r="E168" s="73"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="107"/>
       <c r="B169" s="73"/>
       <c r="C169" s="73"/>
@@ -16780,7 +16785,7 @@
       <c r="E169" s="73"/>
       <c r="J169" s="73"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="107"/>
       <c r="B170" s="73"/>
       <c r="C170" s="73"/>
@@ -16788,7 +16793,7 @@
       <c r="E170" s="73"/>
       <c r="J170" s="73"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="107"/>
       <c r="B171" s="73"/>
       <c r="C171" s="73"/>
@@ -16796,7 +16801,7 @@
       <c r="E171" s="73"/>
       <c r="J171" s="73"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="107"/>
       <c r="B172" s="73"/>
       <c r="C172" s="73"/>
@@ -16804,7 +16809,7 @@
       <c r="E172" s="73"/>
       <c r="J172" s="73"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="107"/>
       <c r="B173" s="74"/>
       <c r="C173" s="74"/>
@@ -16814,7 +16819,7 @@
       <c r="G173" s="74"/>
       <c r="J173" s="73"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="107"/>
       <c r="B174" s="74"/>
       <c r="C174" s="74"/>
@@ -16824,7 +16829,7 @@
       <c r="G174" s="74"/>
       <c r="J174" s="73"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="107"/>
       <c r="B175" s="74"/>
       <c r="C175" s="74"/>
@@ -16834,7 +16839,7 @@
       <c r="G175" s="74"/>
       <c r="J175" s="73"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="107"/>
       <c r="B176" s="74"/>
       <c r="C176" s="74"/>
@@ -16844,7 +16849,7 @@
       <c r="G176" s="74"/>
       <c r="J176" s="73"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="107"/>
       <c r="B177" s="74"/>
       <c r="C177" s="74"/>
@@ -16854,7 +16859,7 @@
       <c r="G177" s="74"/>
       <c r="J177" s="73"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="107"/>
       <c r="B178" s="74"/>
       <c r="C178" s="74"/>
@@ -16864,7 +16869,7 @@
       <c r="G178" s="74"/>
       <c r="J178" s="73"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="107"/>
       <c r="B179" s="74"/>
       <c r="C179" s="74"/>
@@ -16874,7 +16879,7 @@
       <c r="G179" s="74"/>
       <c r="J179" s="73"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="107"/>
       <c r="B180" s="74"/>
       <c r="C180" s="74"/>
@@ -16884,7 +16889,7 @@
       <c r="G180" s="74"/>
       <c r="J180" s="73"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="107"/>
       <c r="B181" s="74"/>
       <c r="C181" s="74"/>
@@ -16894,7 +16899,7 @@
       <c r="G181" s="74"/>
       <c r="J181" s="73"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="107"/>
       <c r="B182" s="74"/>
       <c r="C182" s="74"/>
@@ -16904,7 +16909,7 @@
       <c r="G182" s="74"/>
       <c r="J182" s="73"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="107"/>
       <c r="B183" s="74"/>
       <c r="C183" s="74"/>
@@ -16914,7 +16919,7 @@
       <c r="G183" s="74"/>
       <c r="J183" s="73"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="107"/>
       <c r="B184" s="74"/>
       <c r="C184" s="74"/>
@@ -16924,7 +16929,7 @@
       <c r="G184" s="74"/>
       <c r="J184" s="73"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="107"/>
       <c r="B185" s="74"/>
       <c r="C185" s="74"/>
@@ -16934,7 +16939,7 @@
       <c r="G185" s="74"/>
       <c r="J185" s="73"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="107"/>
       <c r="B186" s="74"/>
       <c r="C186" s="74"/>
@@ -16944,7 +16949,7 @@
       <c r="G186" s="74"/>
       <c r="J186" s="73"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="107"/>
       <c r="B187" s="74"/>
       <c r="C187" s="74"/>
@@ -16954,7 +16959,7 @@
       <c r="G187" s="74"/>
       <c r="J187" s="73"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="107"/>
       <c r="B188" s="74"/>
       <c r="C188" s="74"/>
@@ -16964,7 +16969,7 @@
       <c r="G188" s="74"/>
       <c r="J188" s="73"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="107"/>
       <c r="B189" s="74"/>
       <c r="C189" s="74"/>
@@ -16974,7 +16979,7 @@
       <c r="G189" s="74"/>
       <c r="J189" s="73"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="107"/>
       <c r="B190" s="74"/>
       <c r="C190" s="74"/>
@@ -16984,7 +16989,7 @@
       <c r="G190" s="74"/>
       <c r="J190" s="73"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="107"/>
       <c r="B191" s="74"/>
       <c r="C191" s="74"/>
@@ -16994,7 +16999,7 @@
       <c r="G191" s="74"/>
       <c r="J191" s="73"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="107"/>
       <c r="B192" s="74"/>
       <c r="C192" s="74"/>
@@ -17004,7 +17009,7 @@
       <c r="G192" s="74"/>
       <c r="J192" s="73"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="107"/>
       <c r="B193" s="74"/>
       <c r="C193" s="74"/>
@@ -17014,7 +17019,7 @@
       <c r="G193" s="74"/>
       <c r="J193" s="73"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="107"/>
       <c r="B194" s="74"/>
       <c r="C194" s="74"/>
@@ -17024,7 +17029,7 @@
       <c r="G194" s="74"/>
       <c r="J194" s="73"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="107"/>
       <c r="B195" s="74"/>
       <c r="C195" s="74"/>
@@ -17034,7 +17039,7 @@
       <c r="G195" s="74"/>
       <c r="J195" s="73"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="107"/>
       <c r="B196" s="74"/>
       <c r="C196" s="74"/>
@@ -17044,7 +17049,7 @@
       <c r="G196" s="74"/>
       <c r="J196" s="73"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="107"/>
       <c r="B197" s="74"/>
       <c r="C197" s="74"/>
@@ -17054,7 +17059,7 @@
       <c r="G197" s="74"/>
       <c r="J197" s="73"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="107"/>
       <c r="B198" s="74"/>
       <c r="C198" s="74"/>
@@ -17064,7 +17069,7 @@
       <c r="G198" s="74"/>
       <c r="J198" s="73"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="107"/>
       <c r="B199" s="74"/>
       <c r="C199" s="74"/>
@@ -17074,7 +17079,7 @@
       <c r="G199" s="74"/>
       <c r="J199" s="73"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="107"/>
       <c r="B200" s="74"/>
       <c r="C200" s="74"/>
@@ -17084,7 +17089,7 @@
       <c r="G200" s="74"/>
       <c r="J200" s="73"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="107"/>
       <c r="B201" s="74"/>
       <c r="C201" s="74"/>
@@ -17094,7 +17099,7 @@
       <c r="G201" s="74"/>
       <c r="J201" s="73"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="107"/>
       <c r="B202" s="74"/>
       <c r="C202" s="74"/>
@@ -17104,7 +17109,7 @@
       <c r="G202" s="74"/>
       <c r="J202" s="73"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="107"/>
       <c r="B203" s="74"/>
       <c r="C203" s="74"/>
@@ -17114,7 +17119,7 @@
       <c r="G203" s="74"/>
       <c r="J203" s="73"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="107"/>
       <c r="B204" s="74"/>
       <c r="C204" s="74"/>
@@ -17124,7 +17129,7 @@
       <c r="G204" s="74"/>
       <c r="J204" s="73"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="107"/>
       <c r="B205" s="74"/>
       <c r="C205" s="74"/>
@@ -17134,7 +17139,7 @@
       <c r="G205" s="74"/>
       <c r="J205" s="73"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="107"/>
       <c r="B206" s="74"/>
       <c r="C206" s="74"/>
@@ -17144,7 +17149,7 @@
       <c r="G206" s="74"/>
       <c r="J206" s="73"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="107"/>
       <c r="B207" s="74"/>
       <c r="C207" s="74"/>
@@ -17154,7 +17159,7 @@
       <c r="G207" s="74"/>
       <c r="J207" s="73"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="107"/>
       <c r="B208" s="74"/>
       <c r="C208" s="74"/>
@@ -17164,7 +17169,7 @@
       <c r="G208" s="74"/>
       <c r="J208" s="73"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="107"/>
       <c r="B209" s="74"/>
       <c r="C209" s="74"/>
@@ -17174,7 +17179,7 @@
       <c r="G209" s="74"/>
       <c r="J209" s="73"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="107"/>
       <c r="B210" s="74"/>
       <c r="C210" s="74"/>
@@ -17184,7 +17189,7 @@
       <c r="G210" s="74"/>
       <c r="J210" s="73"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="107"/>
       <c r="B211" s="74"/>
       <c r="C211" s="74"/>
@@ -17194,7 +17199,7 @@
       <c r="G211" s="74"/>
       <c r="J211" s="73"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="107"/>
       <c r="B212" s="74"/>
       <c r="C212" s="74"/>
@@ -17204,7 +17209,7 @@
       <c r="G212" s="74"/>
       <c r="J212" s="73"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="107"/>
       <c r="B213" s="74"/>
       <c r="C213" s="74"/>
@@ -17214,7 +17219,7 @@
       <c r="G213" s="74"/>
       <c r="J213" s="73"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="107"/>
       <c r="B214" s="74"/>
       <c r="C214" s="74"/>
@@ -17224,7 +17229,7 @@
       <c r="G214" s="74"/>
       <c r="J214" s="73"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="107"/>
       <c r="B215" s="74"/>
       <c r="C215" s="74"/>
@@ -17234,7 +17239,7 @@
       <c r="G215" s="74"/>
       <c r="J215" s="73"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="107"/>
       <c r="B216" s="74"/>
       <c r="C216" s="74"/>
@@ -17244,7 +17249,7 @@
       <c r="G216" s="74"/>
       <c r="J216" s="73"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="107"/>
       <c r="B217" s="74"/>
       <c r="C217" s="74"/>
@@ -17254,7 +17259,7 @@
       <c r="G217" s="74"/>
       <c r="J217" s="73"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="107"/>
       <c r="B218" s="74"/>
       <c r="C218" s="74"/>
@@ -17264,7 +17269,7 @@
       <c r="G218" s="74"/>
       <c r="J218" s="73"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="107"/>
       <c r="B219" s="74"/>
       <c r="C219" s="74"/>
@@ -17274,7 +17279,7 @@
       <c r="G219" s="74"/>
       <c r="J219" s="73"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="107"/>
       <c r="B220" s="74"/>
       <c r="C220" s="74"/>
@@ -17284,7 +17289,7 @@
       <c r="G220" s="74"/>
       <c r="J220" s="73"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="107"/>
       <c r="B221" s="74"/>
       <c r="C221" s="74"/>
@@ -17294,7 +17299,7 @@
       <c r="G221" s="74"/>
       <c r="J221" s="73"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="107"/>
       <c r="B222" s="74"/>
       <c r="C222" s="74"/>
@@ -17304,7 +17309,7 @@
       <c r="G222" s="74"/>
       <c r="J222" s="73"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="107"/>
       <c r="B223" s="74"/>
       <c r="C223" s="74"/>
@@ -17314,7 +17319,7 @@
       <c r="G223" s="74"/>
       <c r="J223" s="73"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="107"/>
       <c r="B224" s="74"/>
       <c r="C224" s="74"/>
@@ -17324,7 +17329,7 @@
       <c r="G224" s="74"/>
       <c r="J224" s="73"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="107"/>
       <c r="B225" s="74"/>
       <c r="C225" s="74"/>
@@ -17334,7 +17339,7 @@
       <c r="G225" s="74"/>
       <c r="J225" s="73"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="107"/>
       <c r="B226" s="74"/>
       <c r="C226" s="74"/>
@@ -17344,7 +17349,7 @@
       <c r="G226" s="74"/>
       <c r="J226" s="73"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="107"/>
       <c r="B227" s="74"/>
       <c r="C227" s="74"/>
@@ -17354,7 +17359,7 @@
       <c r="G227" s="74"/>
       <c r="J227" s="73"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="107"/>
       <c r="B228" s="74"/>
       <c r="C228" s="74"/>
@@ -17364,7 +17369,7 @@
       <c r="G228" s="74"/>
       <c r="J228" s="73"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="107"/>
       <c r="B229" s="74"/>
       <c r="C229" s="74"/>
@@ -17374,7 +17379,7 @@
       <c r="G229" s="74"/>
       <c r="J229" s="73"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="107"/>
       <c r="B230" s="74"/>
       <c r="C230" s="74"/>
@@ -17384,7 +17389,7 @@
       <c r="G230" s="74"/>
       <c r="J230" s="73"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="107"/>
       <c r="B231" s="74"/>
       <c r="C231" s="74"/>
@@ -17394,7 +17399,7 @@
       <c r="G231" s="74"/>
       <c r="J231" s="73"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="107"/>
       <c r="B232" s="74"/>
       <c r="C232" s="74"/>
@@ -17404,7 +17409,7 @@
       <c r="G232" s="74"/>
       <c r="J232" s="73"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="107"/>
       <c r="B233" s="74"/>
       <c r="C233" s="74"/>
@@ -17414,7 +17419,7 @@
       <c r="G233" s="74"/>
       <c r="J233" s="73"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="107"/>
       <c r="B234" s="74"/>
       <c r="C234" s="74"/>
@@ -17424,7 +17429,7 @@
       <c r="G234" s="74"/>
       <c r="J234" s="73"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="107"/>
       <c r="B235" s="74"/>
       <c r="C235" s="74"/>
@@ -17434,7 +17439,7 @@
       <c r="G235" s="74"/>
       <c r="J235" s="73"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="107"/>
       <c r="B236" s="74"/>
       <c r="C236" s="74"/>
@@ -17444,7 +17449,7 @@
       <c r="G236" s="74"/>
       <c r="J236" s="73"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="107"/>
       <c r="B237" s="74"/>
       <c r="C237" s="74"/>
@@ -17454,7 +17459,7 @@
       <c r="G237" s="74"/>
       <c r="J237" s="73"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="107"/>
       <c r="B238" s="74"/>
       <c r="C238" s="74"/>
@@ -17464,7 +17469,7 @@
       <c r="G238" s="74"/>
       <c r="J238" s="73"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="107"/>
       <c r="B239" s="74"/>
       <c r="C239" s="74"/>
@@ -17474,7 +17479,7 @@
       <c r="G239" s="74"/>
       <c r="J239" s="73"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="107"/>
       <c r="B240" s="74"/>
       <c r="C240" s="74"/>
@@ -17484,7 +17489,7 @@
       <c r="G240" s="74"/>
       <c r="J240" s="73"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241" s="107"/>
       <c r="B241" s="74"/>
       <c r="C241" s="74"/>
@@ -17494,7 +17499,7 @@
       <c r="G241" s="74"/>
       <c r="J241" s="73"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10">
       <c r="A242" s="107"/>
       <c r="B242" s="74"/>
       <c r="C242" s="74"/>
@@ -17504,7 +17509,7 @@
       <c r="G242" s="74"/>
       <c r="J242" s="73"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243" s="107"/>
       <c r="B243" s="74"/>
       <c r="C243" s="74"/>
@@ -17514,7 +17519,7 @@
       <c r="G243" s="74"/>
       <c r="J243" s="73"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10">
       <c r="A244" s="107"/>
       <c r="B244" s="74"/>
       <c r="C244" s="74"/>
@@ -17524,7 +17529,7 @@
       <c r="G244" s="74"/>
       <c r="J244" s="73"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245" s="107"/>
       <c r="B245" s="74"/>
       <c r="C245" s="74"/>
@@ -17534,7 +17539,7 @@
       <c r="G245" s="74"/>
       <c r="J245" s="73"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10">
       <c r="A246" s="107"/>
       <c r="B246" s="74"/>
       <c r="C246" s="74"/>
@@ -17544,7 +17549,7 @@
       <c r="G246" s="74"/>
       <c r="J246" s="73"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10">
       <c r="A247" s="107"/>
       <c r="B247" s="74"/>
       <c r="C247" s="74"/>
@@ -17554,7 +17559,7 @@
       <c r="G247" s="74"/>
       <c r="J247" s="73"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10">
       <c r="A248" s="107"/>
       <c r="B248" s="74"/>
       <c r="C248" s="74"/>
@@ -17564,7 +17569,7 @@
       <c r="G248" s="74"/>
       <c r="J248" s="73"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249" s="107"/>
       <c r="B249" s="74"/>
       <c r="C249" s="74"/>
@@ -17574,7 +17579,7 @@
       <c r="G249" s="74"/>
       <c r="J249" s="73"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250" s="107"/>
       <c r="B250" s="74"/>
       <c r="C250" s="74"/>
@@ -17584,7 +17589,7 @@
       <c r="G250" s="74"/>
       <c r="J250" s="73"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251" s="107"/>
       <c r="B251" s="74"/>
       <c r="C251" s="74"/>
@@ -17594,7 +17599,7 @@
       <c r="G251" s="74"/>
       <c r="J251" s="73"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10">
       <c r="A252" s="107"/>
       <c r="B252" s="74"/>
       <c r="C252" s="74"/>
@@ -17604,7 +17609,7 @@
       <c r="G252" s="74"/>
       <c r="J252" s="73"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10">
       <c r="A253" s="107"/>
       <c r="B253" s="74"/>
       <c r="C253" s="74"/>
@@ -17614,7 +17619,7 @@
       <c r="G253" s="74"/>
       <c r="J253" s="73"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254" s="107"/>
       <c r="B254" s="74"/>
       <c r="C254" s="74"/>
@@ -17624,7 +17629,7 @@
       <c r="G254" s="74"/>
       <c r="J254" s="73"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255" s="107"/>
       <c r="B255" s="74"/>
       <c r="C255" s="74"/>
@@ -17634,7 +17639,7 @@
       <c r="G255" s="74"/>
       <c r="J255" s="73"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256" s="107"/>
       <c r="B256" s="74"/>
       <c r="C256" s="74"/>
@@ -17644,7 +17649,7 @@
       <c r="G256" s="74"/>
       <c r="J256" s="73"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10">
       <c r="A257" s="107"/>
       <c r="B257" s="74"/>
       <c r="C257" s="74"/>
@@ -17654,7 +17659,7 @@
       <c r="G257" s="74"/>
       <c r="J257" s="73"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10">
       <c r="A258" s="107"/>
       <c r="B258" s="74"/>
       <c r="C258" s="74"/>
@@ -17664,7 +17669,7 @@
       <c r="G258" s="74"/>
       <c r="J258" s="73"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259" s="107"/>
       <c r="B259" s="74"/>
       <c r="C259" s="74"/>
@@ -17674,7 +17679,7 @@
       <c r="G259" s="74"/>
       <c r="J259" s="73"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260" s="107"/>
       <c r="B260" s="74"/>
       <c r="C260" s="74"/>
@@ -17684,7 +17689,7 @@
       <c r="G260" s="74"/>
       <c r="J260" s="73"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10">
       <c r="A261" s="107"/>
       <c r="B261" s="74"/>
       <c r="C261" s="74"/>
@@ -17694,7 +17699,7 @@
       <c r="G261" s="74"/>
       <c r="J261" s="73"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10">
       <c r="A262" s="107"/>
       <c r="B262" s="74"/>
       <c r="C262" s="74"/>
@@ -17704,7 +17709,7 @@
       <c r="G262" s="74"/>
       <c r="J262" s="73"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263" s="107"/>
       <c r="B263" s="74"/>
       <c r="C263" s="74"/>
@@ -17714,7 +17719,7 @@
       <c r="G263" s="74"/>
       <c r="J263" s="73"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264" s="107"/>
       <c r="B264" s="74"/>
       <c r="C264" s="74"/>
@@ -17724,7 +17729,7 @@
       <c r="G264" s="74"/>
       <c r="J264" s="73"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265" s="107"/>
       <c r="B265" s="74"/>
       <c r="C265" s="74"/>
@@ -17734,7 +17739,7 @@
       <c r="G265" s="74"/>
       <c r="J265" s="73"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="107"/>
       <c r="B266" s="74"/>
       <c r="C266" s="74"/>
@@ -17744,7 +17749,7 @@
       <c r="G266" s="74"/>
       <c r="J266" s="73"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267" s="107"/>
       <c r="B267" s="74"/>
       <c r="C267" s="74"/>
@@ -17754,7 +17759,7 @@
       <c r="G267" s="74"/>
       <c r="J267" s="73"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10">
       <c r="A268" s="107"/>
       <c r="B268" s="74"/>
       <c r="C268" s="74"/>
@@ -17764,7 +17769,7 @@
       <c r="G268" s="74"/>
       <c r="J268" s="73"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269" s="107"/>
       <c r="B269" s="74"/>
       <c r="C269" s="74"/>
@@ -17774,7 +17779,7 @@
       <c r="G269" s="74"/>
       <c r="J269" s="73"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270" s="107"/>
       <c r="B270" s="74"/>
       <c r="C270" s="74"/>
@@ -17784,7 +17789,7 @@
       <c r="G270" s="74"/>
       <c r="J270" s="73"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10">
       <c r="A271" s="107"/>
       <c r="B271" s="74"/>
       <c r="C271" s="74"/>
@@ -17794,7 +17799,7 @@
       <c r="G271" s="74"/>
       <c r="J271" s="73"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272" s="107"/>
       <c r="B272" s="74"/>
       <c r="C272" s="74"/>
@@ -17804,7 +17809,7 @@
       <c r="G272" s="74"/>
       <c r="J272" s="73"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273" s="107"/>
       <c r="B273" s="74"/>
       <c r="C273" s="74"/>
@@ -17814,7 +17819,7 @@
       <c r="G273" s="74"/>
       <c r="J273" s="73"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274" s="107"/>
       <c r="B274" s="74"/>
       <c r="C274" s="74"/>
@@ -17824,7 +17829,7 @@
       <c r="G274" s="74"/>
       <c r="J274" s="73"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10">
       <c r="A275" s="107"/>
       <c r="B275" s="74"/>
       <c r="C275" s="74"/>
@@ -17834,7 +17839,7 @@
       <c r="G275" s="74"/>
       <c r="J275" s="73"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10">
       <c r="A276" s="107"/>
       <c r="B276" s="74"/>
       <c r="C276" s="74"/>
@@ -17844,7 +17849,7 @@
       <c r="G276" s="74"/>
       <c r="J276" s="73"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10">
       <c r="A277" s="107"/>
       <c r="B277" s="74"/>
       <c r="C277" s="74"/>
@@ -17854,7 +17859,7 @@
       <c r="G277" s="74"/>
       <c r="J277" s="73"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278" s="107"/>
       <c r="B278" s="74"/>
       <c r="C278" s="74"/>
@@ -17864,7 +17869,7 @@
       <c r="G278" s="74"/>
       <c r="J278" s="73"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10">
       <c r="A279" s="107"/>
       <c r="B279" s="74"/>
       <c r="C279" s="74"/>
@@ -17874,7 +17879,7 @@
       <c r="G279" s="74"/>
       <c r="J279" s="73"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280" s="107"/>
       <c r="B280" s="74"/>
       <c r="C280" s="74"/>
@@ -17884,7 +17889,7 @@
       <c r="G280" s="74"/>
       <c r="J280" s="73"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="107"/>
       <c r="B281" s="74"/>
       <c r="C281" s="74"/>
@@ -17894,7 +17899,7 @@
       <c r="G281" s="74"/>
       <c r="J281" s="73"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282" s="107"/>
       <c r="B282" s="74"/>
       <c r="C282" s="74"/>
@@ -17904,7 +17909,7 @@
       <c r="G282" s="74"/>
       <c r="J282" s="73"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283" s="107"/>
       <c r="B283" s="74"/>
       <c r="C283" s="74"/>
@@ -17914,7 +17919,7 @@
       <c r="G283" s="74"/>
       <c r="J283" s="73"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284" s="107"/>
       <c r="B284" s="74"/>
       <c r="C284" s="74"/>
@@ -17924,7 +17929,7 @@
       <c r="G284" s="74"/>
       <c r="J284" s="73"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285" s="107"/>
       <c r="B285" s="74"/>
       <c r="C285" s="74"/>
@@ -17934,7 +17939,7 @@
       <c r="G285" s="74"/>
       <c r="J285" s="73"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286" s="107"/>
       <c r="B286" s="74"/>
       <c r="C286" s="74"/>
@@ -17944,7 +17949,7 @@
       <c r="G286" s="74"/>
       <c r="J286" s="73"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10">
       <c r="A287" s="107"/>
       <c r="B287" s="74"/>
       <c r="C287" s="74"/>
@@ -17954,7 +17959,7 @@
       <c r="G287" s="74"/>
       <c r="J287" s="73"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288" s="107"/>
       <c r="B288" s="74"/>
       <c r="C288" s="74"/>
@@ -17964,7 +17969,7 @@
       <c r="G288" s="74"/>
       <c r="J288" s="73"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289" s="107"/>
       <c r="B289" s="74"/>
       <c r="C289" s="74"/>
@@ -17974,7 +17979,7 @@
       <c r="G289" s="74"/>
       <c r="J289" s="73"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290" s="107"/>
       <c r="B290" s="74"/>
       <c r="C290" s="74"/>
@@ -17984,7 +17989,7 @@
       <c r="G290" s="74"/>
       <c r="J290" s="73"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291" s="107"/>
       <c r="B291" s="74"/>
       <c r="C291" s="74"/>
@@ -17994,7 +17999,7 @@
       <c r="G291" s="74"/>
       <c r="J291" s="73"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292" s="107"/>
       <c r="B292" s="74"/>
       <c r="C292" s="74"/>
@@ -18004,7 +18009,7 @@
       <c r="G292" s="74"/>
       <c r="J292" s="73"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293" s="107"/>
       <c r="B293" s="74"/>
       <c r="C293" s="74"/>
@@ -18014,7 +18019,7 @@
       <c r="G293" s="74"/>
       <c r="J293" s="73"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10">
       <c r="A294" s="107"/>
       <c r="B294" s="74"/>
       <c r="C294" s="74"/>
@@ -18024,7 +18029,7 @@
       <c r="G294" s="74"/>
       <c r="J294" s="73"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" s="107"/>
       <c r="B295" s="74"/>
       <c r="C295" s="74"/>
@@ -18034,7 +18039,7 @@
       <c r="G295" s="74"/>
       <c r="J295" s="73"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10">
       <c r="A296" s="107"/>
       <c r="B296" s="74"/>
       <c r="C296" s="74"/>
@@ -18044,7 +18049,7 @@
       <c r="G296" s="74"/>
       <c r="J296" s="73"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="A297" s="107"/>
       <c r="B297" s="74"/>
       <c r="C297" s="74"/>
@@ -18054,7 +18059,7 @@
       <c r="G297" s="74"/>
       <c r="J297" s="73"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="A298" s="107"/>
       <c r="B298" s="74"/>
       <c r="C298" s="74"/>
@@ -18064,7 +18069,7 @@
       <c r="G298" s="74"/>
       <c r="J298" s="73"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="A299" s="107"/>
       <c r="B299" s="74"/>
       <c r="C299" s="74"/>
@@ -18074,7 +18079,7 @@
       <c r="G299" s="74"/>
       <c r="J299" s="73"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="A300" s="107"/>
       <c r="B300" s="74"/>
       <c r="C300" s="74"/>
@@ -18084,7 +18089,7 @@
       <c r="G300" s="74"/>
       <c r="J300" s="73"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="A301" s="107"/>
       <c r="B301" s="74"/>
       <c r="C301" s="74"/>
@@ -18094,7 +18099,7 @@
       <c r="G301" s="74"/>
       <c r="J301" s="73"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="107"/>
       <c r="B302" s="74"/>
       <c r="C302" s="74"/>
@@ -18104,7 +18109,7 @@
       <c r="G302" s="74"/>
       <c r="J302" s="73"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="A303" s="107"/>
       <c r="B303" s="74"/>
       <c r="C303" s="74"/>
@@ -18114,7 +18119,7 @@
       <c r="G303" s="74"/>
       <c r="J303" s="73"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="A304" s="107"/>
       <c r="B304" s="74"/>
       <c r="C304" s="74"/>
@@ -18124,7 +18129,7 @@
       <c r="G304" s="74"/>
       <c r="J304" s="73"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="107"/>
       <c r="B305" s="74"/>
       <c r="C305" s="74"/>
@@ -18134,7 +18139,7 @@
       <c r="G305" s="74"/>
       <c r="J305" s="73"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="107"/>
       <c r="B306" s="74"/>
       <c r="C306" s="74"/>
@@ -18144,7 +18149,7 @@
       <c r="G306" s="74"/>
       <c r="J306" s="73"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="107"/>
       <c r="B307" s="74"/>
       <c r="C307" s="74"/>
@@ -18154,7 +18159,7 @@
       <c r="G307" s="74"/>
       <c r="J307" s="73"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="107"/>
       <c r="B308" s="74"/>
       <c r="C308" s="74"/>
@@ -18164,7 +18169,7 @@
       <c r="G308" s="74"/>
       <c r="J308" s="73"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="107"/>
       <c r="B309" s="74"/>
       <c r="C309" s="74"/>
@@ -18174,7 +18179,7 @@
       <c r="G309" s="74"/>
       <c r="J309" s="73"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="107"/>
       <c r="B310" s="74"/>
       <c r="C310" s="74"/>
@@ -18184,7 +18189,7 @@
       <c r="G310" s="74"/>
       <c r="J310" s="73"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="107"/>
       <c r="B311" s="74"/>
       <c r="C311" s="74"/>
@@ -18194,7 +18199,7 @@
       <c r="G311" s="74"/>
       <c r="J311" s="73"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="107"/>
       <c r="B312" s="74"/>
       <c r="C312" s="74"/>
@@ -18204,7 +18209,7 @@
       <c r="G312" s="74"/>
       <c r="J312" s="73"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="107"/>
       <c r="B313" s="74"/>
       <c r="C313" s="74"/>
@@ -18214,7 +18219,7 @@
       <c r="G313" s="74"/>
       <c r="J313" s="73"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="107"/>
       <c r="B314" s="74"/>
       <c r="C314" s="74"/>
@@ -18224,7 +18229,7 @@
       <c r="G314" s="74"/>
       <c r="J314" s="73"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="107"/>
       <c r="B315" s="74"/>
       <c r="C315" s="74"/>
@@ -18234,7 +18239,7 @@
       <c r="G315" s="74"/>
       <c r="J315" s="73"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="107"/>
       <c r="B316" s="74"/>
       <c r="C316" s="74"/>
@@ -18244,7 +18249,7 @@
       <c r="G316" s="74"/>
       <c r="J316" s="73"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="107"/>
       <c r="B317" s="74"/>
       <c r="C317" s="74"/>
@@ -18254,7 +18259,7 @@
       <c r="G317" s="74"/>
       <c r="J317" s="73"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="107"/>
       <c r="B318" s="74"/>
       <c r="C318" s="74"/>
@@ -18264,7 +18269,7 @@
       <c r="G318" s="74"/>
       <c r="J318" s="73"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="107"/>
       <c r="B319" s="74"/>
       <c r="C319" s="74"/>
@@ -18274,7 +18279,7 @@
       <c r="G319" s="74"/>
       <c r="J319" s="73"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="107"/>
       <c r="B320" s="74"/>
       <c r="C320" s="74"/>
@@ -18284,7 +18289,7 @@
       <c r="G320" s="74"/>
       <c r="J320" s="73"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10">
       <c r="A321" s="107"/>
       <c r="B321" s="74"/>
       <c r="C321" s="74"/>
@@ -18294,7 +18299,7 @@
       <c r="G321" s="74"/>
       <c r="J321" s="73"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="107"/>
       <c r="B322" s="74"/>
       <c r="C322" s="74"/>
@@ -18304,7 +18309,7 @@
       <c r="G322" s="74"/>
       <c r="J322" s="73"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10">
       <c r="A323" s="107"/>
       <c r="B323" s="74"/>
       <c r="C323" s="74"/>
@@ -18314,7 +18319,7 @@
       <c r="G323" s="74"/>
       <c r="J323" s="73"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10">
       <c r="A324" s="107"/>
       <c r="B324" s="74"/>
       <c r="C324" s="74"/>
@@ -18324,7 +18329,7 @@
       <c r="G324" s="74"/>
       <c r="J324" s="73"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10">
       <c r="A325" s="107"/>
       <c r="B325" s="74"/>
       <c r="C325" s="74"/>
@@ -18334,7 +18339,7 @@
       <c r="G325" s="74"/>
       <c r="J325" s="73"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10">
       <c r="A326" s="107"/>
       <c r="B326" s="74"/>
       <c r="C326" s="74"/>
@@ -18344,7 +18349,7 @@
       <c r="G326" s="74"/>
       <c r="J326" s="73"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="107"/>
       <c r="B327" s="74"/>
       <c r="C327" s="74"/>
@@ -18354,7 +18359,7 @@
       <c r="G327" s="74"/>
       <c r="J327" s="73"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10">
       <c r="A328" s="107"/>
       <c r="B328" s="74"/>
       <c r="C328" s="74"/>
@@ -18364,7 +18369,7 @@
       <c r="G328" s="74"/>
       <c r="J328" s="73"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10">
       <c r="A329" s="107"/>
       <c r="B329" s="74"/>
       <c r="C329" s="74"/>
@@ -18374,7 +18379,7 @@
       <c r="G329" s="74"/>
       <c r="J329" s="73"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10">
       <c r="A330" s="107"/>
       <c r="B330" s="74"/>
       <c r="C330" s="74"/>
@@ -18384,7 +18389,7 @@
       <c r="G330" s="74"/>
       <c r="J330" s="73"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10">
       <c r="A331" s="107"/>
       <c r="B331" s="74"/>
       <c r="C331" s="74"/>
@@ -18394,7 +18399,7 @@
       <c r="G331" s="74"/>
       <c r="J331" s="73"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10">
       <c r="A332" s="107"/>
       <c r="B332" s="74"/>
       <c r="C332" s="74"/>
@@ -18404,7 +18409,7 @@
       <c r="G332" s="74"/>
       <c r="J332" s="73"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10">
       <c r="A333" s="107"/>
       <c r="B333" s="74"/>
       <c r="C333" s="74"/>
@@ -18414,7 +18419,7 @@
       <c r="G333" s="74"/>
       <c r="J333" s="73"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10">
       <c r="A334" s="107"/>
       <c r="B334" s="74"/>
       <c r="C334" s="74"/>
@@ -18424,7 +18429,7 @@
       <c r="G334" s="74"/>
       <c r="J334" s="73"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10">
       <c r="A335" s="107"/>
       <c r="B335" s="74"/>
       <c r="C335" s="74"/>
@@ -18434,7 +18439,7 @@
       <c r="G335" s="74"/>
       <c r="J335" s="73"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="107"/>
       <c r="B336" s="74"/>
       <c r="C336" s="74"/>
@@ -18444,7 +18449,7 @@
       <c r="G336" s="74"/>
       <c r="J336" s="73"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10">
       <c r="A337" s="107"/>
       <c r="B337" s="74"/>
       <c r="C337" s="74"/>
@@ -18454,7 +18459,7 @@
       <c r="G337" s="74"/>
       <c r="J337" s="73"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="107"/>
       <c r="B338" s="74"/>
       <c r="C338" s="74"/>
@@ -18464,7 +18469,7 @@
       <c r="G338" s="74"/>
       <c r="J338" s="73"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10">
       <c r="A339" s="107"/>
       <c r="B339" s="74"/>
       <c r="C339" s="74"/>
@@ -18474,7 +18479,7 @@
       <c r="G339" s="74"/>
       <c r="J339" s="73"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="107"/>
       <c r="B340" s="74"/>
       <c r="C340" s="74"/>
@@ -18484,7 +18489,7 @@
       <c r="G340" s="74"/>
       <c r="J340" s="73"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10">
       <c r="A341" s="107"/>
       <c r="B341" s="74"/>
       <c r="C341" s="74"/>
@@ -18494,7 +18499,7 @@
       <c r="G341" s="74"/>
       <c r="J341" s="73"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10">
       <c r="A342" s="107"/>
       <c r="B342" s="74"/>
       <c r="C342" s="74"/>
@@ -18504,7 +18509,7 @@
       <c r="G342" s="74"/>
       <c r="J342" s="73"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10">
       <c r="A343" s="107"/>
       <c r="B343" s="74"/>
       <c r="C343" s="74"/>
@@ -18514,7 +18519,7 @@
       <c r="G343" s="74"/>
       <c r="J343" s="73"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="107"/>
       <c r="B344" s="74"/>
       <c r="C344" s="74"/>
@@ -18524,7 +18529,7 @@
       <c r="G344" s="74"/>
       <c r="J344" s="73"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10">
       <c r="A345" s="107"/>
       <c r="B345" s="74"/>
       <c r="C345" s="74"/>
@@ -18534,7 +18539,7 @@
       <c r="G345" s="74"/>
       <c r="J345" s="73"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="107"/>
       <c r="B346" s="74"/>
       <c r="C346" s="74"/>
@@ -18544,7 +18549,7 @@
       <c r="G346" s="74"/>
       <c r="J346" s="73"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="107"/>
       <c r="B347" s="74"/>
       <c r="C347" s="74"/>
@@ -18554,7 +18559,7 @@
       <c r="G347" s="74"/>
       <c r="J347" s="73"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10">
       <c r="A348" s="107"/>
       <c r="B348" s="74"/>
       <c r="C348" s="74"/>
@@ -18564,7 +18569,7 @@
       <c r="G348" s="74"/>
       <c r="J348" s="73"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10">
       <c r="A349" s="107"/>
       <c r="B349" s="74"/>
       <c r="C349" s="74"/>
@@ -18574,7 +18579,7 @@
       <c r="G349" s="74"/>
       <c r="J349" s="73"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="107"/>
       <c r="B350" s="74"/>
       <c r="C350" s="74"/>
@@ -18584,7 +18589,7 @@
       <c r="G350" s="74"/>
       <c r="J350" s="73"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10">
       <c r="A351" s="107"/>
       <c r="B351" s="74"/>
       <c r="C351" s="74"/>
@@ -18594,7 +18599,7 @@
       <c r="G351" s="74"/>
       <c r="J351" s="73"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="107"/>
       <c r="B352" s="74"/>
       <c r="C352" s="74"/>
@@ -18604,7 +18609,7 @@
       <c r="G352" s="74"/>
       <c r="J352" s="73"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="107"/>
       <c r="B353" s="74"/>
       <c r="C353" s="74"/>
@@ -18614,7 +18619,7 @@
       <c r="G353" s="74"/>
       <c r="J353" s="73"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" s="107"/>
       <c r="B354" s="74"/>
       <c r="C354" s="74"/>
@@ -18624,7 +18629,7 @@
       <c r="G354" s="74"/>
       <c r="J354" s="73"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="107"/>
       <c r="B355" s="74"/>
       <c r="C355" s="74"/>
@@ -18634,7 +18639,7 @@
       <c r="G355" s="74"/>
       <c r="J355" s="73"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="107"/>
       <c r="B356" s="74"/>
       <c r="C356" s="74"/>
@@ -18644,7 +18649,7 @@
       <c r="G356" s="74"/>
       <c r="J356" s="73"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10">
       <c r="A357" s="107"/>
       <c r="B357" s="74"/>
       <c r="C357" s="74"/>
@@ -18654,7 +18659,7 @@
       <c r="G357" s="74"/>
       <c r="J357" s="73"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="107"/>
       <c r="B358" s="74"/>
       <c r="C358" s="74"/>
@@ -18664,7 +18669,7 @@
       <c r="G358" s="74"/>
       <c r="J358" s="73"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="107"/>
       <c r="B359" s="74"/>
       <c r="C359" s="74"/>
@@ -18674,7 +18679,7 @@
       <c r="G359" s="74"/>
       <c r="J359" s="73"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10">
       <c r="A360" s="107"/>
       <c r="B360" s="74"/>
       <c r="C360" s="74"/>
@@ -18684,7 +18689,7 @@
       <c r="G360" s="74"/>
       <c r="J360" s="73"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="107"/>
       <c r="B361" s="74"/>
       <c r="C361" s="74"/>
@@ -18694,7 +18699,7 @@
       <c r="G361" s="74"/>
       <c r="J361" s="73"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10">
       <c r="A362" s="107"/>
       <c r="B362" s="74"/>
       <c r="C362" s="74"/>
@@ -18704,7 +18709,7 @@
       <c r="G362" s="74"/>
       <c r="J362" s="73"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10">
       <c r="A363" s="107"/>
       <c r="B363" s="74"/>
       <c r="C363" s="74"/>
@@ -18714,7 +18719,7 @@
       <c r="G363" s="74"/>
       <c r="J363" s="73"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10">
       <c r="A364" s="107"/>
       <c r="B364" s="74"/>
       <c r="C364" s="74"/>
@@ -18724,7 +18729,7 @@
       <c r="G364" s="74"/>
       <c r="J364" s="73"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="107"/>
       <c r="B365" s="74"/>
       <c r="C365" s="74"/>
@@ -18734,7 +18739,7 @@
       <c r="G365" s="74"/>
       <c r="J365" s="73"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="107"/>
       <c r="B366" s="74"/>
       <c r="C366" s="74"/>
@@ -18744,7 +18749,7 @@
       <c r="G366" s="74"/>
       <c r="J366" s="73"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="107"/>
       <c r="B367" s="74"/>
       <c r="C367" s="74"/>
@@ -18754,7 +18759,7 @@
       <c r="G367" s="74"/>
       <c r="J367" s="73"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="107"/>
       <c r="B368" s="74"/>
       <c r="C368" s="74"/>
@@ -18764,7 +18769,7 @@
       <c r="G368" s="74"/>
       <c r="J368" s="73"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10">
       <c r="A369" s="107"/>
       <c r="B369" s="74"/>
       <c r="C369" s="74"/>
@@ -18774,7 +18779,7 @@
       <c r="G369" s="74"/>
       <c r="J369" s="73"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10">
       <c r="A370" s="107"/>
       <c r="B370" s="74"/>
       <c r="C370" s="74"/>
@@ -18784,7 +18789,7 @@
       <c r="G370" s="74"/>
       <c r="J370" s="73"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10">
       <c r="A371" s="107"/>
       <c r="B371" s="74"/>
       <c r="C371" s="74"/>
@@ -18794,7 +18799,7 @@
       <c r="G371" s="74"/>
       <c r="J371" s="73"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10">
       <c r="A372" s="107"/>
       <c r="B372" s="74"/>
       <c r="C372" s="74"/>
@@ -18804,7 +18809,7 @@
       <c r="G372" s="74"/>
       <c r="J372" s="73"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10">
       <c r="A373" s="107"/>
       <c r="B373" s="74"/>
       <c r="C373" s="74"/>
@@ -18814,7 +18819,7 @@
       <c r="G373" s="74"/>
       <c r="J373" s="73"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10">
       <c r="A374" s="107"/>
       <c r="B374" s="74"/>
       <c r="C374" s="74"/>
@@ -18824,7 +18829,7 @@
       <c r="G374" s="74"/>
       <c r="J374" s="73"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10">
       <c r="A375" s="107"/>
       <c r="B375" s="74"/>
       <c r="C375" s="74"/>
@@ -18834,7 +18839,7 @@
       <c r="G375" s="74"/>
       <c r="J375" s="73"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10">
       <c r="A376" s="107"/>
       <c r="B376" s="74"/>
       <c r="C376" s="74"/>
@@ -18844,7 +18849,7 @@
       <c r="G376" s="74"/>
       <c r="J376" s="73"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10">
       <c r="A377" s="107"/>
       <c r="B377" s="74"/>
       <c r="C377" s="74"/>
@@ -18854,7 +18859,7 @@
       <c r="G377" s="74"/>
       <c r="J377" s="73"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10">
       <c r="A378" s="107"/>
       <c r="B378" s="74"/>
       <c r="C378" s="74"/>
@@ -18864,7 +18869,7 @@
       <c r="G378" s="74"/>
       <c r="J378" s="73"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10">
       <c r="A379" s="107"/>
       <c r="B379" s="74"/>
       <c r="C379" s="74"/>
@@ -18874,7 +18879,7 @@
       <c r="G379" s="74"/>
       <c r="J379" s="73"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10">
       <c r="A380" s="107"/>
       <c r="B380" s="74"/>
       <c r="C380" s="74"/>
@@ -18884,7 +18889,7 @@
       <c r="G380" s="74"/>
       <c r="J380" s="73"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10">
       <c r="A381" s="107"/>
       <c r="B381" s="74"/>
       <c r="C381" s="74"/>
@@ -18894,7 +18899,7 @@
       <c r="G381" s="74"/>
       <c r="J381" s="73"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10">
       <c r="A382" s="107"/>
       <c r="B382" s="74"/>
       <c r="C382" s="74"/>
@@ -18904,7 +18909,7 @@
       <c r="G382" s="74"/>
       <c r="J382" s="73"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10">
       <c r="A383" s="107"/>
       <c r="B383" s="74"/>
       <c r="C383" s="74"/>
@@ -18914,7 +18919,7 @@
       <c r="G383" s="74"/>
       <c r="J383" s="73"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10">
       <c r="A384" s="107"/>
       <c r="B384" s="74"/>
       <c r="C384" s="74"/>
@@ -18924,7 +18929,7 @@
       <c r="G384" s="74"/>
       <c r="J384" s="73"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10">
       <c r="A385" s="107"/>
       <c r="B385" s="74"/>
       <c r="C385" s="74"/>
@@ -18934,7 +18939,7 @@
       <c r="G385" s="74"/>
       <c r="J385" s="73"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10">
       <c r="A386" s="107"/>
       <c r="B386" s="74"/>
       <c r="C386" s="74"/>
@@ -18944,7 +18949,7 @@
       <c r="G386" s="74"/>
       <c r="J386" s="73"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10">
       <c r="A387" s="107"/>
       <c r="B387" s="74"/>
       <c r="C387" s="74"/>
@@ -18954,7 +18959,7 @@
       <c r="G387" s="74"/>
       <c r="J387" s="73"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10">
       <c r="A388" s="107"/>
       <c r="B388" s="74"/>
       <c r="C388" s="74"/>
@@ -18964,7 +18969,7 @@
       <c r="G388" s="74"/>
       <c r="J388" s="73"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10">
       <c r="A389" s="107"/>
       <c r="B389" s="74"/>
       <c r="C389" s="74"/>
@@ -18974,7 +18979,7 @@
       <c r="G389" s="74"/>
       <c r="J389" s="73"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10">
       <c r="A390" s="107"/>
       <c r="B390" s="74"/>
       <c r="C390" s="74"/>
@@ -18984,7 +18989,7 @@
       <c r="G390" s="74"/>
       <c r="J390" s="73"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10">
       <c r="A391" s="107"/>
       <c r="B391" s="74"/>
       <c r="C391" s="74"/>
@@ -18994,7 +18999,7 @@
       <c r="G391" s="74"/>
       <c r="J391" s="73"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10">
       <c r="A392" s="107"/>
       <c r="B392" s="74"/>
       <c r="C392" s="74"/>
@@ -19004,7 +19009,7 @@
       <c r="G392" s="74"/>
       <c r="J392" s="73"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10">
       <c r="A393" s="107"/>
       <c r="B393" s="74"/>
       <c r="C393" s="74"/>
@@ -19014,7 +19019,7 @@
       <c r="G393" s="74"/>
       <c r="J393" s="73"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10">
       <c r="A394" s="107"/>
       <c r="B394" s="74"/>
       <c r="C394" s="74"/>
@@ -19024,7 +19029,7 @@
       <c r="G394" s="74"/>
       <c r="J394" s="73"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10">
       <c r="A395" s="107"/>
       <c r="B395" s="74"/>
       <c r="C395" s="74"/>
@@ -19034,7 +19039,7 @@
       <c r="G395" s="74"/>
       <c r="J395" s="73"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10">
       <c r="A396" s="107"/>
       <c r="B396" s="74"/>
       <c r="C396" s="74"/>
@@ -19044,7 +19049,7 @@
       <c r="G396" s="74"/>
       <c r="J396" s="73"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10">
       <c r="A397" s="107"/>
       <c r="B397" s="74"/>
       <c r="C397" s="74"/>
@@ -19054,7 +19059,7 @@
       <c r="G397" s="74"/>
       <c r="J397" s="73"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10">
       <c r="A398" s="107"/>
       <c r="B398" s="74"/>
       <c r="C398" s="74"/>
@@ -19064,7 +19069,7 @@
       <c r="G398" s="74"/>
       <c r="J398" s="73"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10">
       <c r="A399" s="107"/>
       <c r="B399" s="74"/>
       <c r="C399" s="74"/>
@@ -19074,7 +19079,7 @@
       <c r="G399" s="74"/>
       <c r="J399" s="73"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10">
       <c r="A400" s="107"/>
       <c r="B400" s="74"/>
       <c r="C400" s="74"/>
@@ -19084,7 +19089,7 @@
       <c r="G400" s="74"/>
       <c r="J400" s="73"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10">
       <c r="A401" s="107"/>
       <c r="B401" s="74"/>
       <c r="C401" s="74"/>
@@ -19094,7 +19099,7 @@
       <c r="G401" s="74"/>
       <c r="J401" s="73"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10">
       <c r="A402" s="107"/>
       <c r="B402" s="74"/>
       <c r="C402" s="74"/>
@@ -19104,7 +19109,7 @@
       <c r="G402" s="74"/>
       <c r="J402" s="73"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10">
       <c r="A403" s="107"/>
       <c r="B403" s="74"/>
       <c r="C403" s="74"/>
@@ -19114,7 +19119,7 @@
       <c r="G403" s="74"/>
       <c r="J403" s="73"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10">
       <c r="A404" s="107"/>
       <c r="B404" s="74"/>
       <c r="C404" s="74"/>
@@ -19124,7 +19129,7 @@
       <c r="G404" s="74"/>
       <c r="J404" s="73"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10">
       <c r="A405" s="107"/>
       <c r="B405" s="74"/>
       <c r="C405" s="74"/>
@@ -19134,7 +19139,7 @@
       <c r="G405" s="74"/>
       <c r="J405" s="73"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10">
       <c r="A406" s="107"/>
       <c r="B406" s="74"/>
       <c r="C406" s="74"/>
@@ -19144,7 +19149,7 @@
       <c r="G406" s="74"/>
       <c r="J406" s="73"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10">
       <c r="A407" s="107"/>
       <c r="B407" s="74"/>
       <c r="C407" s="74"/>
@@ -19154,7 +19159,7 @@
       <c r="G407" s="74"/>
       <c r="J407" s="73"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10">
       <c r="A408" s="107"/>
       <c r="B408" s="74"/>
       <c r="C408" s="74"/>
@@ -19164,7 +19169,7 @@
       <c r="G408" s="74"/>
       <c r="J408" s="73"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10">
       <c r="A409" s="107"/>
       <c r="B409" s="74"/>
       <c r="C409" s="74"/>
@@ -19174,7 +19179,7 @@
       <c r="G409" s="74"/>
       <c r="J409" s="73"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10">
       <c r="A410" s="107"/>
       <c r="B410" s="74"/>
       <c r="C410" s="74"/>
@@ -19184,7 +19189,7 @@
       <c r="G410" s="74"/>
       <c r="J410" s="73"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10">
       <c r="A411" s="107"/>
       <c r="B411" s="74"/>
       <c r="C411" s="74"/>
@@ -19194,7 +19199,7 @@
       <c r="G411" s="74"/>
       <c r="J411" s="73"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10">
       <c r="A412" s="107"/>
       <c r="B412" s="74"/>
       <c r="C412" s="74"/>
@@ -19204,7 +19209,7 @@
       <c r="G412" s="74"/>
       <c r="J412" s="73"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10">
       <c r="A413" s="107"/>
       <c r="B413" s="74"/>
       <c r="C413" s="74"/>
@@ -19225,30 +19230,30 @@
   <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="30" style="36" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="36" customWidth="1"/>
     <col min="5" max="5" width="20" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="37" customWidth="1"/>
     <col min="7" max="7" width="24" style="37" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="10" width="24.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="73" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -19298,7 +19303,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="48">
       <c r="A2" s="17" t="s">
         <v>924</v>
       </c>
@@ -19340,7 +19345,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="152" t="s">
         <v>920</v>
       </c>
@@ -19372,7 +19377,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="36">
       <c r="A4" s="152" t="s">
         <v>234</v>
       </c>
@@ -19402,7 +19407,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="3" customFormat="1">
       <c r="A5" s="23" t="s">
         <v>922</v>
       </c>
@@ -19422,7 +19427,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="68" t="s">
         <v>929</v>
       </c>
@@ -19452,7 +19457,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="3" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>235</v>
       </c>
@@ -19482,7 +19487,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="3" customFormat="1">
       <c r="A8" s="68" t="s">
         <v>928</v>
       </c>
@@ -19512,7 +19517,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="96">
       <c r="A9" s="17" t="s">
         <v>236</v>
       </c>
@@ -19556,7 +19561,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="17" t="s">
         <v>374</v>
       </c>
@@ -19598,7 +19603,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="15" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>237</v>
       </c>
@@ -19616,7 +19621,7 @@
       <c r="K11" s="80"/>
       <c r="L11" s="80"/>
     </row>
-    <row r="12" spans="1:24" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="81" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>919</v>
       </c>
@@ -19632,7 +19637,7 @@
       <c r="K12" s="185"/>
       <c r="L12" s="185"/>
     </row>
-    <row r="13" spans="1:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24">
       <c r="A13" s="17" t="s">
         <v>238</v>
       </c>
@@ -19676,7 +19681,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24">
       <c r="A14" s="17" t="s">
         <v>239</v>
       </c>
@@ -19718,7 +19723,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="17" t="s">
         <v>240</v>
       </c>
@@ -19762,7 +19767,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24">
       <c r="A16" s="17" t="s">
         <v>241</v>
       </c>
@@ -19806,7 +19811,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24">
       <c r="A17" s="17" t="s">
         <v>242</v>
       </c>
@@ -19850,7 +19855,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="15" customFormat="1" ht="36">
       <c r="A18" s="52" t="s">
         <v>243</v>
       </c>
@@ -19882,7 +19887,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="45.75" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>244</v>
       </c>
@@ -19927,7 +19932,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="24">
       <c r="A20" s="17" t="s">
         <v>245</v>
       </c>
@@ -19971,7 +19976,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="15" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -20009,7 +20014,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A22" s="68" t="s">
         <v>690</v>
       </c>
@@ -20043,7 +20048,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="24">
       <c r="A23" s="68" t="s">
         <v>690</v>
       </c>
@@ -20077,7 +20082,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="24">
       <c r="A24" s="68" t="s">
         <v>691</v>
       </c>
@@ -20109,7 +20114,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="3" customFormat="1">
       <c r="A25" s="68" t="s">
         <v>691</v>
       </c>
@@ -20139,7 +20144,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="3" customFormat="1">
       <c r="A26" s="68" t="s">
         <v>692</v>
       </c>
@@ -20169,7 +20174,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="68" t="s">
         <v>692</v>
       </c>
@@ -20201,7 +20206,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="58" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="58" customFormat="1" ht="24">
       <c r="A28" s="68" t="s">
         <v>693</v>
       </c>
@@ -20235,7 +20240,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="58" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="58" customFormat="1" ht="24">
       <c r="A29" s="68" t="s">
         <v>693</v>
       </c>
@@ -20269,7 +20274,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="58" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="58" customFormat="1" ht="24">
       <c r="A30" s="68" t="s">
         <v>694</v>
       </c>
@@ -20303,7 +20308,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="58" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="58" customFormat="1" ht="24">
       <c r="A31" s="68" t="s">
         <v>694</v>
       </c>
@@ -20337,7 +20342,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="3" customFormat="1">
       <c r="A32" s="68" t="s">
         <v>709</v>
       </c>
@@ -20369,7 +20374,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="3" customFormat="1">
       <c r="A33" s="68" t="s">
         <v>709</v>
       </c>
@@ -20401,7 +20406,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A34" s="68" t="s">
         <v>710</v>
       </c>
@@ -20435,7 +20440,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A35" s="68" t="s">
         <v>710</v>
       </c>
@@ -20469,7 +20474,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A36" s="68" t="s">
         <v>711</v>
       </c>
@@ -20503,7 +20508,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A37" s="68" t="s">
         <v>711</v>
       </c>
@@ -20537,7 +20542,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A38" s="152" t="s">
         <v>695</v>
       </c>
@@ -20569,7 +20574,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A39" s="68" t="s">
         <v>695</v>
       </c>
@@ -20601,7 +20606,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A40" s="68" t="s">
         <v>696</v>
       </c>
@@ -20633,7 +20638,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A41" s="68" t="s">
         <v>696</v>
       </c>
@@ -20665,7 +20670,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="3" customFormat="1" ht="36">
       <c r="A42" s="68" t="s">
         <v>697</v>
       </c>
@@ -20695,7 +20700,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A43" s="68" t="s">
         <v>698</v>
       </c>
@@ -20724,7 +20729,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A44" s="68" t="s">
         <v>699</v>
       </c>
@@ -20756,7 +20761,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A45" s="68" t="s">
         <v>699</v>
       </c>
@@ -20788,7 +20793,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A46" s="68" t="s">
         <v>700</v>
       </c>
@@ -20820,7 +20825,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="3" customFormat="1" ht="24">
       <c r="A47" s="68" t="s">
         <v>700</v>
       </c>
@@ -20852,7 +20857,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="3" customFormat="1" ht="36">
       <c r="A48" s="68" t="s">
         <v>701</v>
       </c>
@@ -20882,7 +20887,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="A49" s="68" t="s">
         <v>702</v>
       </c>
@@ -20912,7 +20917,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="3" customFormat="1">
       <c r="A50" s="68" t="s">
         <v>703</v>
       </c>
@@ -20944,7 +20949,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="3" customFormat="1">
       <c r="A51" s="68" t="s">
         <v>704</v>
       </c>
@@ -20976,7 +20981,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="3" customFormat="1">
       <c r="A52" s="68" t="s">
         <v>705</v>
       </c>
@@ -21008,7 +21013,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="3" customFormat="1">
       <c r="A53" s="68" t="s">
         <v>706</v>
       </c>
@@ -21040,7 +21045,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="3" customFormat="1">
       <c r="A54" s="68" t="s">
         <v>707</v>
       </c>
@@ -21072,7 +21077,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="68" t="s">
         <v>708</v>
       </c>
@@ -21104,7 +21109,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="81" customFormat="1">
       <c r="A56" s="12" t="s">
         <v>400</v>
       </c>
@@ -21142,7 +21147,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="81" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="81" customFormat="1" ht="24.75">
       <c r="A57" s="104" t="s">
         <v>401</v>
       </c>
@@ -21174,7 +21179,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="81" customFormat="1">
       <c r="A58" s="30" t="s">
         <v>472</v>
       </c>
@@ -21206,7 +21211,7 @@
       </c>
       <c r="L58" s="80"/>
     </row>
-    <row r="59" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="81" customFormat="1">
       <c r="A59" s="30" t="s">
         <v>473</v>
       </c>
@@ -21236,7 +21241,7 @@
       </c>
       <c r="L59" s="80"/>
     </row>
-    <row r="60" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="81" customFormat="1">
       <c r="A60" s="30" t="s">
         <v>474</v>
       </c>
@@ -21266,7 +21271,7 @@
       </c>
       <c r="L60" s="80"/>
     </row>
-    <row r="61" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="81" customFormat="1">
       <c r="A61" s="104" t="s">
         <v>402</v>
       </c>
@@ -21298,7 +21303,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="81" customFormat="1">
       <c r="A62" s="104" t="s">
         <v>403</v>
       </c>
@@ -21330,7 +21335,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="81" customFormat="1">
       <c r="A63" s="104" t="s">
         <v>404</v>
       </c>
@@ -21362,7 +21367,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="81" customFormat="1">
       <c r="A64" s="30" t="s">
         <v>475</v>
       </c>
@@ -21392,7 +21397,7 @@
       </c>
       <c r="L64" s="80"/>
     </row>
-    <row r="65" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="81" customFormat="1">
       <c r="A65" s="30" t="s">
         <v>476</v>
       </c>
@@ -21424,7 +21429,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="81" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="81" customFormat="1" ht="24.75">
       <c r="A66" s="104" t="s">
         <v>405</v>
       </c>
@@ -21456,7 +21461,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="81" customFormat="1">
       <c r="A67" s="30" t="s">
         <v>477</v>
       </c>
@@ -21488,7 +21493,7 @@
       </c>
       <c r="L67" s="80"/>
     </row>
-    <row r="68" spans="1:12" s="81" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="81" customFormat="1" ht="24.75">
       <c r="A68" s="104" t="s">
         <v>406</v>
       </c>
@@ -21520,7 +21525,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="81" customFormat="1">
       <c r="A69" s="104" t="s">
         <v>407</v>
       </c>
@@ -21552,7 +21557,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="81" customFormat="1">
       <c r="A70" s="30" t="s">
         <v>423</v>
       </c>
@@ -21572,13 +21577,13 @@
       </c>
       <c r="L70" s="80"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="E74" s="36"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="E75" s="36"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="E76" s="36"/>
     </row>
   </sheetData>
@@ -21591,27 +21596,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="136" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="136"/>
-    <col min="4" max="4" width="14.88671875" style="136" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="137" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="136" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" style="136" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.44140625" style="167" customWidth="1"/>
-    <col min="9" max="9" width="52.44140625" style="136" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" style="136" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="136"/>
-    <col min="12" max="12" width="12.5546875" style="136" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="136"/>
+    <col min="1" max="1" width="39.7109375" style="136" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="136"/>
+    <col min="4" max="4" width="14.85546875" style="136" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="137" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="136" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.42578125" style="167" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" style="136" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="136" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="136"/>
+    <col min="12" max="12" width="12.5703125" style="136" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="136"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="73" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -21649,7 +21654,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="81" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>159</v>
       </c>
@@ -21679,7 +21684,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="73" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="73" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="152" t="s">
         <v>785</v>
       </c>
@@ -21714,7 +21719,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="73" customFormat="1">
       <c r="A4" s="152" t="s">
         <v>84</v>
       </c>
@@ -21747,7 +21752,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="73" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A5" s="152" t="s">
         <v>83</v>
       </c>
@@ -21779,7 +21784,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="73" customFormat="1">
       <c r="A6" s="152" t="s">
         <v>786</v>
       </c>
@@ -21811,7 +21816,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="81" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>161</v>
       </c>
@@ -21841,7 +21846,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="81" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>622</v>
       </c>
@@ -21873,7 +21878,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="81" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>993</v>
       </c>
@@ -21901,7 +21906,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="81" customFormat="1">
       <c r="A10" s="29" t="s">
         <v>982</v>
       </c>
@@ -21925,7 +21930,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="81" customFormat="1">
       <c r="A11" s="29" t="s">
         <v>983</v>
       </c>
@@ -21949,7 +21954,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="81" customFormat="1">
       <c r="A12" s="29" t="s">
         <v>984</v>
       </c>
@@ -21973,7 +21978,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="29" t="s">
         <v>985</v>
       </c>
@@ -21997,7 +22002,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="29" t="s">
         <v>986</v>
       </c>
@@ -22021,7 +22026,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="29" t="s">
         <v>987</v>
       </c>
@@ -22045,7 +22050,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="81" customFormat="1">
       <c r="A16" s="29" t="s">
         <v>988</v>
       </c>
@@ -22069,7 +22074,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="81" customFormat="1">
       <c r="A17" s="29" t="s">
         <v>989</v>
       </c>
@@ -22093,7 +22098,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="81" customFormat="1">
       <c r="A18" s="29" t="s">
         <v>990</v>
       </c>
@@ -22117,7 +22122,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="81" customFormat="1">
       <c r="A19" s="29" t="s">
         <v>1121</v>
       </c>
@@ -22141,7 +22146,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="81" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>1122</v>
       </c>
@@ -22165,7 +22170,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="59" t="s">
         <v>814</v>
       </c>
@@ -22203,7 +22208,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A22" s="141" t="s">
         <v>815</v>
       </c>
@@ -22237,7 +22242,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A23" s="141" t="s">
         <v>816</v>
       </c>
@@ -22271,7 +22276,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A24" s="141" t="s">
         <v>817</v>
       </c>
@@ -22305,7 +22310,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A25" s="141" t="s">
         <v>818</v>
       </c>
@@ -22339,7 +22344,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A26" s="141" t="s">
         <v>819</v>
       </c>
@@ -22373,7 +22378,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A27" s="141" t="s">
         <v>820</v>
       </c>
@@ -22407,7 +22412,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A28" s="141" t="s">
         <v>821</v>
       </c>
@@ -22441,7 +22446,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A29" s="141" t="s">
         <v>822</v>
       </c>
@@ -22475,7 +22480,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A30" s="141" t="s">
         <v>823</v>
       </c>
@@ -22509,7 +22514,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A31" s="141" t="s">
         <v>824</v>
       </c>
@@ -22543,7 +22548,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A32" s="141" t="s">
         <v>825</v>
       </c>
@@ -22577,7 +22582,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A33" s="141" t="s">
         <v>826</v>
       </c>
@@ -22611,7 +22616,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A34" s="141" t="s">
         <v>827</v>
       </c>
@@ -22645,7 +22650,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A35" s="141" t="s">
         <v>828</v>
       </c>
@@ -22679,7 +22684,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A36" s="141" t="s">
         <v>829</v>
       </c>
@@ -22713,7 +22718,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A37" s="141" t="s">
         <v>830</v>
       </c>
@@ -22747,7 +22752,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A38" s="141" t="s">
         <v>831</v>
       </c>
@@ -22781,7 +22786,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A39" s="141" t="s">
         <v>832</v>
       </c>
@@ -22815,7 +22820,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A40" s="141" t="s">
         <v>833</v>
       </c>
@@ -22849,7 +22854,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A41" s="141" t="s">
         <v>834</v>
       </c>
@@ -22883,7 +22888,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="141" t="s">
         <v>835</v>
       </c>
@@ -22911,7 +22916,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="141" t="s">
         <v>836</v>
       </c>
@@ -22941,7 +22946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A44" s="141" t="s">
         <v>837</v>
       </c>
@@ -22975,7 +22980,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A45" s="141" t="s">
         <v>838</v>
       </c>
@@ -23009,7 +23014,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A46" s="141" t="s">
         <v>839</v>
       </c>
@@ -23043,7 +23048,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A47" s="141" t="s">
         <v>840</v>
       </c>
@@ -23077,7 +23082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A48" s="141" t="s">
         <v>841</v>
       </c>
@@ -23111,7 +23116,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="135" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A49" s="141" t="s">
         <v>842</v>
       </c>
@@ -23145,7 +23150,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="59" t="s">
         <v>63</v>
       </c>
@@ -23183,7 +23188,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="24.75">
       <c r="A51" s="141" t="s">
         <v>975</v>
       </c>
@@ -23213,7 +23218,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="141" t="s">
         <v>844</v>
       </c>
@@ -23241,7 +23246,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="141" t="s">
         <v>845</v>
       </c>
@@ -23273,7 +23278,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="141" t="s">
         <v>1017</v>
       </c>
@@ -23305,7 +23310,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="24">
       <c r="A55" s="141" t="s">
         <v>846</v>
       </c>
@@ -23333,7 +23338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="141" t="s">
         <v>1016</v>
       </c>
@@ -23363,7 +23368,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="36.75">
       <c r="A57" s="141" t="s">
         <v>847</v>
       </c>
@@ -23385,7 +23390,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="72.75">
       <c r="A58" s="141" t="s">
         <v>848</v>
       </c>
@@ -23417,7 +23422,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="141" t="s">
         <v>849</v>
       </c>
@@ -23447,7 +23452,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="141" t="s">
         <v>850</v>
       </c>
@@ -23475,7 +23480,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="24.75">
       <c r="A61" s="141" t="s">
         <v>851</v>
       </c>
@@ -23507,7 +23512,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="48.75">
       <c r="A62" s="141" t="s">
         <v>852</v>
       </c>
@@ -23539,7 +23544,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="24">
       <c r="A63" s="141" t="s">
         <v>853</v>
       </c>
@@ -23561,7 +23566,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="24">
       <c r="A64" s="141" t="s">
         <v>854</v>
       </c>
@@ -23589,7 +23594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="152" t="s">
         <v>1018</v>
       </c>
@@ -23619,7 +23624,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="141" t="s">
         <v>1019</v>
       </c>
@@ -23649,7 +23654,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="141" t="s">
         <v>976</v>
       </c>
@@ -23675,7 +23680,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="36">
       <c r="A68" s="141" t="s">
         <v>855</v>
       </c>
@@ -23705,7 +23710,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="24.75">
       <c r="A69" s="141" t="s">
         <v>977</v>
       </c>
@@ -23733,7 +23738,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="141" t="s">
         <v>856</v>
       </c>
@@ -23761,7 +23766,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="141" t="s">
         <v>857</v>
       </c>
@@ -23791,7 +23796,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="141" t="s">
         <v>1020</v>
       </c>
@@ -23821,7 +23826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="24">
       <c r="A73" s="141" t="s">
         <v>858</v>
       </c>
@@ -23849,7 +23854,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="141" t="s">
         <v>1021</v>
       </c>
@@ -23877,7 +23882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="36.75">
       <c r="A75" s="141" t="s">
         <v>859</v>
       </c>
@@ -23903,7 +23908,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="72.75">
       <c r="A76" s="141" t="s">
         <v>860</v>
       </c>
@@ -23935,7 +23940,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="141" t="s">
         <v>861</v>
       </c>
@@ -23965,7 +23970,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="141" t="s">
         <v>862</v>
       </c>
@@ -23993,7 +23998,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="24.75">
       <c r="A79" s="141" t="s">
         <v>863</v>
       </c>
@@ -24025,7 +24030,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="48.75">
       <c r="A80" s="141" t="s">
         <v>864</v>
       </c>
@@ -24057,7 +24062,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="141" t="s">
         <v>865</v>
       </c>
@@ -24081,7 +24086,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="24">
       <c r="A82" s="141" t="s">
         <v>866</v>
       </c>
@@ -24109,7 +24114,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="152" t="s">
         <v>1022</v>
       </c>
@@ -24139,7 +24144,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="141" t="s">
         <v>1023</v>
       </c>
@@ -24169,7 +24174,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="141" t="s">
         <v>978</v>
       </c>
@@ -24195,7 +24200,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="36">
       <c r="A86" s="141" t="s">
         <v>867</v>
       </c>
@@ -24225,7 +24230,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="141" t="s">
         <v>1024</v>
       </c>
@@ -24248,7 +24253,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="141" t="s">
         <v>1025</v>
       </c>
@@ -24269,7 +24274,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" s="152" t="s">
         <v>1026</v>
       </c>
@@ -24292,7 +24297,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" s="141" t="s">
         <v>1027</v>
       </c>
@@ -24315,7 +24320,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" s="141" t="s">
         <v>1028</v>
       </c>
@@ -24338,7 +24343,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" s="141" t="s">
         <v>1029</v>
       </c>
@@ -24359,7 +24364,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" s="152" t="s">
         <v>1030</v>
       </c>
@@ -24382,7 +24387,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="141" t="s">
         <v>1031</v>
       </c>
@@ -24405,7 +24410,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" s="141" t="s">
         <v>1032</v>
       </c>
@@ -24428,7 +24433,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" s="141" t="s">
         <v>1033</v>
       </c>
@@ -24449,7 +24454,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="152" t="s">
         <v>1034</v>
       </c>
@@ -24472,7 +24477,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="141" t="s">
         <v>1035</v>
       </c>
@@ -24495,7 +24500,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="141" t="s">
         <v>1036</v>
       </c>
@@ -24518,7 +24523,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="141" t="s">
         <v>1037</v>
       </c>
@@ -24539,7 +24544,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="152" t="s">
         <v>1038</v>
       </c>
@@ -24562,7 +24567,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102" s="141" t="s">
         <v>1039</v>
       </c>
@@ -24585,7 +24590,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103" s="141" t="s">
         <v>1040</v>
       </c>
@@ -24608,7 +24613,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104" s="141" t="s">
         <v>1041</v>
       </c>
@@ -24629,7 +24634,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105" s="152" t="s">
         <v>1042</v>
       </c>
@@ -24652,7 +24657,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106" s="141" t="s">
         <v>1043</v>
       </c>
@@ -24675,7 +24680,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" s="141" t="s">
         <v>1044</v>
       </c>
@@ -24698,7 +24703,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" s="141" t="s">
         <v>1045</v>
       </c>
@@ -24719,7 +24724,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="152" t="s">
         <v>1046</v>
       </c>
@@ -24742,7 +24747,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" s="141" t="s">
         <v>1047</v>
       </c>
@@ -24765,7 +24770,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111" s="141" t="s">
         <v>1048</v>
       </c>
@@ -24788,7 +24793,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112" s="141" t="s">
         <v>1049</v>
       </c>
@@ -24809,7 +24814,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113" s="152" t="s">
         <v>1050</v>
       </c>
@@ -24832,7 +24837,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114" s="141" t="s">
         <v>1051</v>
       </c>
@@ -24855,7 +24860,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" s="141" t="s">
         <v>1052</v>
       </c>
@@ -24878,7 +24883,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" s="141" t="s">
         <v>1053</v>
       </c>
@@ -24899,7 +24904,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" s="152" t="s">
         <v>1054</v>
       </c>
@@ -24922,7 +24927,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118" s="141" t="s">
         <v>1055</v>
       </c>
@@ -24945,7 +24950,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119" s="141" t="s">
         <v>1056</v>
       </c>
@@ -24968,7 +24973,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120" s="141" t="s">
         <v>1057</v>
       </c>
@@ -24989,7 +24994,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" s="152" t="s">
         <v>1058</v>
       </c>
@@ -25012,7 +25017,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" s="141" t="s">
         <v>1059</v>
       </c>
@@ -25035,7 +25040,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="141" t="s">
         <v>1060</v>
       </c>
@@ -25058,7 +25063,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="141" t="s">
         <v>1061</v>
       </c>
@@ -25079,7 +25084,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="152" t="s">
         <v>1062</v>
       </c>
@@ -25102,7 +25107,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="141" t="s">
         <v>1063</v>
       </c>
@@ -25125,7 +25130,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="141" t="s">
         <v>1064</v>
       </c>
@@ -25148,7 +25153,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" s="141" t="s">
         <v>1065</v>
       </c>
@@ -25169,7 +25174,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="152" t="s">
         <v>1066</v>
       </c>
@@ -25192,7 +25197,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130" s="141" t="s">
         <v>1067</v>
       </c>
@@ -25215,7 +25220,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" s="141" t="s">
         <v>1068</v>
       </c>
@@ -25238,7 +25243,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" s="141" t="s">
         <v>1069</v>
       </c>
@@ -25259,7 +25264,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" s="152" t="s">
         <v>1070</v>
       </c>
@@ -25282,7 +25287,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" s="141" t="s">
         <v>1071</v>
       </c>
@@ -25305,7 +25310,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" s="141" t="s">
         <v>1072</v>
       </c>
@@ -25328,7 +25333,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" s="141" t="s">
         <v>1073</v>
       </c>
@@ -25349,7 +25354,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" s="152" t="s">
         <v>1074</v>
       </c>
@@ -25372,7 +25377,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" s="141" t="s">
         <v>1075</v>
       </c>
@@ -25395,7 +25400,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139" s="141" t="s">
         <v>1076</v>
       </c>
@@ -25418,7 +25423,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" s="141" t="s">
         <v>1077</v>
       </c>
@@ -25439,7 +25444,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141" s="152" t="s">
         <v>1078</v>
       </c>
@@ -25462,7 +25467,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142" s="141" t="s">
         <v>1079</v>
       </c>
@@ -25485,7 +25490,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" s="141" t="s">
         <v>1080</v>
       </c>
@@ -25508,7 +25513,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" s="141" t="s">
         <v>1081</v>
       </c>
@@ -25529,7 +25534,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145" s="152" t="s">
         <v>1082</v>
       </c>
@@ -25552,7 +25557,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146" s="141" t="s">
         <v>1083</v>
       </c>
@@ -25575,7 +25580,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147" s="141" t="s">
         <v>1084</v>
       </c>
@@ -25598,7 +25603,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148" s="141" t="s">
         <v>1085</v>
       </c>
@@ -25619,7 +25624,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149" s="152" t="s">
         <v>1086</v>
       </c>
@@ -25642,7 +25647,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" s="141" t="s">
         <v>1087</v>
       </c>
@@ -25665,7 +25670,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151" s="141" t="s">
         <v>1088</v>
       </c>
@@ -25688,7 +25693,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152" s="141" t="s">
         <v>1089</v>
       </c>
@@ -25709,7 +25714,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153" s="152" t="s">
         <v>1090</v>
       </c>
@@ -25732,7 +25737,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154" s="141" t="s">
         <v>1091</v>
       </c>
@@ -25755,7 +25760,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155" s="141" t="s">
         <v>1092</v>
       </c>
@@ -25778,7 +25783,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156" s="141" t="s">
         <v>1093</v>
       </c>
@@ -25799,7 +25804,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157" s="152" t="s">
         <v>1094</v>
       </c>
@@ -25822,7 +25827,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158" s="141" t="s">
         <v>1095</v>
       </c>
@@ -25845,7 +25850,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159" s="141" t="s">
         <v>1096</v>
       </c>
@@ -25868,7 +25873,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160" s="141" t="s">
         <v>1097</v>
       </c>
@@ -25889,7 +25894,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161" s="152" t="s">
         <v>1098</v>
       </c>
@@ -25912,7 +25917,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162" s="141" t="s">
         <v>1099</v>
       </c>
@@ -25935,7 +25940,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163" s="141" t="s">
         <v>1100</v>
       </c>
@@ -25958,7 +25963,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164" s="141" t="s">
         <v>1101</v>
       </c>
@@ -25979,7 +25984,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165" s="152" t="s">
         <v>1102</v>
       </c>
@@ -26002,7 +26007,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166" s="141" t="s">
         <v>1103</v>
       </c>
@@ -26025,7 +26030,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167" s="141" t="s">
         <v>1104</v>
       </c>
@@ -26048,7 +26053,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168" s="141" t="s">
         <v>1105</v>
       </c>
@@ -26069,7 +26074,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169" s="152" t="s">
         <v>1106</v>
       </c>
@@ -26092,7 +26097,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170" s="141" t="s">
         <v>1107</v>
       </c>
@@ -26115,7 +26120,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171" s="141" t="s">
         <v>1108</v>
       </c>
@@ -26138,7 +26143,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172" s="141" t="s">
         <v>1109</v>
       </c>
@@ -26159,7 +26164,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173" s="152" t="s">
         <v>1110</v>
       </c>
@@ -26182,7 +26187,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174" s="141" t="s">
         <v>1111</v>
       </c>
@@ -26205,7 +26210,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175" s="141" t="s">
         <v>1112</v>
       </c>
@@ -26228,7 +26233,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176" s="141" t="s">
         <v>1113</v>
       </c>
@@ -26249,7 +26254,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177" s="152" t="s">
         <v>1114</v>
       </c>
@@ -26272,7 +26277,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178" s="141" t="s">
         <v>1115</v>
       </c>
@@ -26295,7 +26300,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179" s="141" t="s">
         <v>1116</v>
       </c>
@@ -26318,7 +26323,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180" s="141" t="s">
         <v>1117</v>
       </c>
@@ -26339,7 +26344,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181" s="152" t="s">
         <v>1118</v>
       </c>
@@ -26362,7 +26367,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182" s="141" t="s">
         <v>1119</v>
       </c>
@@ -26385,40 +26390,40 @@
         <v>843</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="J183" s="195"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="J184" s="195"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="J185" s="195"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="J186" s="195"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="J187" s="195"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="J188" s="195"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="J189" s="195"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="J190" s="195"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="J191" s="195"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="J192" s="195"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="10:10">
       <c r="J193" s="195"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="10:10">
       <c r="J194" s="195"/>
     </row>
   </sheetData>

--- a/share/doc/validation/SystemValidationData.xlsx
+++ b/share/doc/validation/SystemValidationData.xlsx
@@ -2560,9 +2560,6 @@
 </t>
   </si>
   <si>
-    <t>[9.9,9.8]</t>
-  </si>
-  <si>
     <t>[0.55,436]</t>
   </si>
   <si>
@@ -3522,6 +3519,9 @@
   </si>
   <si>
     <t>[1064, 1200]</t>
+  </si>
+  <si>
+    <t>[9.8,9.9]</t>
   </si>
 </sst>
 </file>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="K2" s="80"/>
       <c r="L2" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="89" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82" t="s">
@@ -5355,7 +5355,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="183" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I6" s="78"/>
       <c r="J6" s="80" t="s">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="K6" s="80"/>
       <c r="L6" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="152" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B7" s="183"/>
       <c r="C7" s="183" t="s">
@@ -5380,7 +5380,7 @@
       <c r="E7" s="183"/>
       <c r="F7" s="183"/>
       <c r="G7" s="183" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="78"/>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1">
@@ -5489,10 +5489,10 @@
         <v>169</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E11" s="150" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F11" s="150"/>
       <c r="G11" s="150"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="K11" s="157"/>
       <c r="L11" s="157" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27.75" customHeight="1">
@@ -5537,12 +5537,12 @@
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24">
       <c r="A13" s="152" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B13" s="183"/>
       <c r="C13" s="183" t="s">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24">
@@ -5600,7 +5600,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="152" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B15" s="183"/>
       <c r="C15" s="183"/>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5653,10 +5653,10 @@
         <v>169</v>
       </c>
       <c r="D17" s="155" t="s">
+        <v>869</v>
+      </c>
+      <c r="E17" s="150" t="s">
         <v>870</v>
-      </c>
-      <c r="E17" s="150" t="s">
-        <v>871</v>
       </c>
       <c r="F17" s="150"/>
       <c r="G17" s="150"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="K17" s="157"/>
       <c r="L17" s="157" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="K18" s="80"/>
       <c r="L18" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="K19" s="80"/>
       <c r="L19" s="80" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="K20" s="80"/>
       <c r="L20" s="80" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5786,7 +5786,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="59" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="23" spans="1:12" ht="56.25">
       <c r="A23" s="141" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B23" s="142" t="s">
         <v>761</v>
@@ -5849,12 +5849,12 @@
       </c>
       <c r="K23" s="144"/>
       <c r="L23" s="144" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="22.5">
       <c r="A24" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>11</v>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="K24" s="80"/>
       <c r="L24" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="89" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>11</v>
@@ -5913,12 +5913,12 @@
       </c>
       <c r="K25" s="80"/>
       <c r="L25" s="80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="89" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B26" s="70" t="s">
         <v>761</v>
@@ -5945,12 +5945,12 @@
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="36">
       <c r="A27" s="148" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B27" s="145" t="s">
         <v>44</v>
@@ -5975,12 +5975,12 @@
       <c r="J27" s="147"/>
       <c r="K27" s="147"/>
       <c r="L27" s="147" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="24">
       <c r="A28" s="89" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B28" s="83" t="s">
         <v>761</v>
@@ -6005,12 +6005,12 @@
       </c>
       <c r="K28" s="80"/>
       <c r="L28" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60">
       <c r="A29" s="152" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B29" s="153" t="s">
         <v>763</v>
@@ -6019,10 +6019,10 @@
         <v>169</v>
       </c>
       <c r="D29" s="183" t="s">
+        <v>962</v>
+      </c>
+      <c r="E29" s="154" t="s">
         <v>963</v>
-      </c>
-      <c r="E29" s="154" t="s">
-        <v>964</v>
       </c>
       <c r="F29" s="154"/>
       <c r="G29" s="154"/>
@@ -6031,12 +6031,12 @@
       <c r="J29" s="151"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="89" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B30" s="83" t="s">
         <v>11</v>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="K30" s="80"/>
       <c r="L30" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="89" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B31" s="83" t="s">
         <v>10</v>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="K31" s="80"/>
       <c r="L31" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="36">
       <c r="A32" s="89" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B32" s="82" t="s">
         <v>11</v>
@@ -6125,12 +6125,12 @@
       </c>
       <c r="K32" s="80"/>
       <c r="L32" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="24">
       <c r="A33" s="89" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B33" s="156" t="s">
         <v>763</v>
@@ -6157,12 +6157,12 @@
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="24">
       <c r="A34" s="89" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B34" s="156" t="s">
         <v>761</v>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="K34" s="80"/>
       <c r="L34" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="24">
       <c r="A35" s="89" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B35" s="156" t="s">
         <v>761</v>
@@ -6221,12 +6221,12 @@
       </c>
       <c r="K35" s="80"/>
       <c r="L35" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="24">
       <c r="A36" s="89" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B36" s="70" t="s">
         <v>11</v>
@@ -6253,12 +6253,12 @@
       </c>
       <c r="K36" s="80"/>
       <c r="L36" s="80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="89" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B37" s="87" t="s">
         <v>10</v>
@@ -6283,12 +6283,12 @@
       </c>
       <c r="K37" s="80"/>
       <c r="L37" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="36">
       <c r="A38" s="89" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B38" s="87" t="s">
         <v>10</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="K38" s="157"/>
       <c r="L38" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="K40" s="80"/>
       <c r="L40" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="K41" s="80"/>
       <c r="L41" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="K42" s="80"/>
       <c r="L42" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="K43" s="80"/>
       <c r="L43" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="K44" s="80"/>
       <c r="L44" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="K45" s="80"/>
       <c r="L45" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="K46" s="80"/>
       <c r="L46" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -6661,7 +6661,7 @@
         <v>424</v>
       </c>
       <c r="L49" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6695,7 +6695,7 @@
         <v>424</v>
       </c>
       <c r="L50" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15">
@@ -6727,7 +6727,7 @@
         <v>424</v>
       </c>
       <c r="L51" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6757,7 +6757,7 @@
         <v>424</v>
       </c>
       <c r="L52" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6789,7 +6789,7 @@
         <v>424</v>
       </c>
       <c r="L53" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75">
@@ -6889,7 +6889,7 @@
         <v>424</v>
       </c>
       <c r="L56" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6957,7 +6957,7 @@
         <v>425</v>
       </c>
       <c r="L58" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6981,7 +6981,7 @@
         <v>425</v>
       </c>
       <c r="L59" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -7005,7 +7005,7 @@
         <v>425</v>
       </c>
       <c r="L60" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -7029,7 +7029,7 @@
         <v>425</v>
       </c>
       <c r="L61" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -7063,7 +7063,7 @@
         <v>425</v>
       </c>
       <c r="L62" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -7095,12 +7095,12 @@
         <v>425</v>
       </c>
       <c r="L63" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="104" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>457</v>
@@ -7109,7 +7109,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>589</v>
@@ -7125,7 +7125,7 @@
         <v>425</v>
       </c>
       <c r="L64" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -7156,7 +7156,7 @@
         <v>425</v>
       </c>
       <c r="L65" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -7188,7 +7188,7 @@
         <v>425</v>
       </c>
       <c r="L66" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7202,10 +7202,10 @@
         <v>169</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F67" s="88"/>
       <c r="G67" s="88"/>
@@ -7218,12 +7218,12 @@
         <v>425</v>
       </c>
       <c r="L67" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="104" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B68" s="88" t="s">
         <v>457</v>
@@ -7232,10 +7232,10 @@
         <v>169</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F68" s="88"/>
       <c r="G68" s="88"/>
@@ -7248,7 +7248,7 @@
         <v>425</v>
       </c>
       <c r="L68" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7280,7 +7280,7 @@
         <v>425</v>
       </c>
       <c r="L69" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -7304,7 +7304,7 @@
         <v>425</v>
       </c>
       <c r="L70" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -7336,7 +7336,7 @@
         <v>425</v>
       </c>
       <c r="L71" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -8229,15 +8229,15 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="152" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B4" s="183" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C4" s="183" t="s">
         <v>169</v>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
@@ -8306,7 +8306,7 @@
         <v>523</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>532</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="7" spans="1:12" ht="36">
       <c r="A7" s="152" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B7" s="183" t="s">
         <v>6</v>
@@ -8335,16 +8335,16 @@
         <v>169</v>
       </c>
       <c r="D7" s="179" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E7" s="183" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="183" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H7" s="174"/>
       <c r="I7" s="109"/>
@@ -8353,12 +8353,12 @@
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="152" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B8" s="174" t="s">
         <v>5</v>
@@ -8367,10 +8367,10 @@
         <v>169</v>
       </c>
       <c r="D8" s="179" t="s">
+        <v>884</v>
+      </c>
+      <c r="E8" s="191" t="s">
         <v>885</v>
-      </c>
-      <c r="E8" s="191" t="s">
-        <v>886</v>
       </c>
       <c r="F8" s="183"/>
       <c r="G8" s="184"/>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1">
@@ -8398,7 +8398,7 @@
         <v>525</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>532</v>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="74.25" customHeight="1">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="73" customFormat="1">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="152" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B14" s="174" t="s">
         <v>5</v>
@@ -8534,14 +8534,14 @@
         <v>169</v>
       </c>
       <c r="D14" s="179" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E14" s="191" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F14" s="183"/>
       <c r="G14" s="184" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H14" s="174"/>
       <c r="I14" s="109"/>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="K14" s="185"/>
       <c r="L14" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1">
@@ -8567,7 +8567,7 @@
         <v>529</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F15" s="82" t="s">
         <v>532</v>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="73" customFormat="1">
@@ -8639,7 +8639,7 @@
         <v>523</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F18" s="82" t="s">
         <v>532</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="K18" s="80"/>
       <c r="L18" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="K19" s="80"/>
       <c r="L19" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8724,7 +8724,7 @@
         <v>530</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F21" s="83" t="s">
         <v>532</v>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="K21" s="80"/>
       <c r="L21" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8756,7 +8756,7 @@
         <v>545</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F22" s="82" t="s">
         <v>537</v>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="K22" s="80"/>
       <c r="L22" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="73" customFormat="1">
@@ -8788,7 +8788,7 @@
         <v>538</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="K23" s="80"/>
       <c r="L23" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="73" customFormat="1">
@@ -8856,7 +8856,7 @@
         <v>172</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F26" s="82" t="s">
         <v>532</v>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A27" s="152" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B27" s="183" t="s">
         <v>201</v>
@@ -8891,7 +8891,7 @@
         <v>95</v>
       </c>
       <c r="F27" s="183" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G27" s="183"/>
       <c r="H27" s="183"/>
@@ -8901,15 +8901,15 @@
       </c>
       <c r="K27" s="185"/>
       <c r="L27" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="73" customFormat="1" ht="36">
       <c r="A28" s="152" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B28" s="183" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C28" s="183" t="s">
         <v>169</v>
@@ -8921,11 +8921,11 @@
         <v>95</v>
       </c>
       <c r="F28" s="183" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G28" s="183"/>
       <c r="H28" s="183" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I28" s="108"/>
       <c r="J28" s="185" t="s">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="73" customFormat="1" ht="48">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="K29" s="80"/>
       <c r="L29" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" ht="24" customHeight="1">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="G30" s="82"/>
       <c r="H30" s="82" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I30" s="108"/>
       <c r="J30" s="80" t="s">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="K30" s="80"/>
       <c r="L30" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="44.25" customHeight="1">
@@ -9016,7 +9016,7 @@
         <v>168</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F31" s="82" t="s">
         <v>532</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="K31" s="80"/>
       <c r="L31" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="73" customFormat="1">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="36">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="K34" s="80"/>
       <c r="L34" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="K35" s="80"/>
       <c r="L35" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9185,12 +9185,12 @@
       </c>
       <c r="K36" s="80"/>
       <c r="L36" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="152" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B37" s="174" t="s">
         <v>5</v>
@@ -9202,7 +9202,7 @@
         <v>40</v>
       </c>
       <c r="E37" s="174" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F37" s="174">
         <v>409</v>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="K37" s="185"/>
       <c r="L37" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="K38" s="80"/>
       <c r="L38" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="K39" s="80"/>
       <c r="L39" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="K40" s="80"/>
       <c r="L40" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="K41" s="80"/>
       <c r="L41" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="K42" s="80"/>
       <c r="L42" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="K43" s="80"/>
       <c r="L43" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="24">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="K44" s="80"/>
       <c r="L44" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="K45" s="80"/>
       <c r="L45" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="36">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="K46" s="80"/>
       <c r="L46" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="K48" s="80"/>
       <c r="L48" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9546,7 +9546,7 @@
         <v>530</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F49" s="83"/>
       <c r="G49" s="7"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="K49" s="80"/>
       <c r="L49" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="48">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="K50" s="80"/>
       <c r="L50" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="K51" s="80"/>
       <c r="L51" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="24">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="K52" s="80"/>
       <c r="L52" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="24">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="K53" s="80"/>
       <c r="L53" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="36">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="K54" s="80"/>
       <c r="L54" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="K56" s="80"/>
       <c r="L56" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K57" s="80"/>
       <c r="L57" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="K58" s="80"/>
       <c r="L58" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="K61" s="80"/>
       <c r="L61" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="K65" s="80"/>
       <c r="L65" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10134,7 +10134,7 @@
         <v>530</v>
       </c>
       <c r="E69" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F69" s="83" t="s">
         <v>532</v>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="K69" s="80"/>
       <c r="L69" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10164,7 +10164,7 @@
         <v>172</v>
       </c>
       <c r="E70" s="84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F70" s="83" t="s">
         <v>532</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="K70" s="80"/>
       <c r="L70" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="24">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="K71" s="80"/>
       <c r="L71" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="K72" s="80"/>
       <c r="L72" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10252,7 +10252,7 @@
         <v>530</v>
       </c>
       <c r="E73" s="153" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F73" s="153" t="s">
         <v>532</v>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="K73" s="80"/>
       <c r="L73" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="K74" s="80"/>
       <c r="L74" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="K75" s="80"/>
       <c r="L75" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36">
@@ -10342,7 +10342,7 @@
         <v>530</v>
       </c>
       <c r="E76" s="83" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F76" s="83" t="s">
         <v>532</v>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="K76" s="80"/>
       <c r="L76" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="36">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="K77" s="80"/>
       <c r="L77" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="60">
@@ -10404,7 +10404,7 @@
         <v>543</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="7"/>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="K78" s="80"/>
       <c r="L78" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="24">
@@ -10434,7 +10434,7 @@
         <v>544</v>
       </c>
       <c r="E79" s="83" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F79" s="83"/>
       <c r="G79" s="7"/>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="K79" s="80"/>
       <c r="L79" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="36">
@@ -10462,7 +10462,7 @@
         <v>535</v>
       </c>
       <c r="E80" s="83" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F80" s="83"/>
       <c r="G80" s="7"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="K80" s="80"/>
       <c r="L80" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -10492,7 +10492,7 @@
         <v>172</v>
       </c>
       <c r="E81" s="83" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F81" s="83"/>
       <c r="G81" s="7"/>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="K81" s="80"/>
       <c r="L81" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="K82" s="80"/>
       <c r="L82" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="K83" s="80"/>
       <c r="L83" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="K84" s="80"/>
       <c r="L84" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="36">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="K85" s="80"/>
       <c r="L85" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="24">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="K86" s="80"/>
       <c r="L86" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="K87" s="80"/>
       <c r="L87" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="24">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="K88" s="80"/>
       <c r="L88" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="K89" s="80"/>
       <c r="L89" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="24">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="K90" s="80"/>
       <c r="L90" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="K91" s="80"/>
       <c r="L91" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="24">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="K92" s="80"/>
       <c r="L92" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="K93" s="80"/>
       <c r="L93" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="K94" s="80"/>
       <c r="L94" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="K95" s="80"/>
       <c r="L95" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="K96" s="80"/>
       <c r="L96" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="K97" s="80"/>
       <c r="L97" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K98" s="80"/>
       <c r="L98" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="K99" s="80"/>
       <c r="L99" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="24">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="K100" s="80"/>
       <c r="L100" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="K101" s="80"/>
       <c r="L101" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -11178,15 +11178,15 @@
         <v>169</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>807</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>808</v>
       </c>
       <c r="F2" s="88"/>
       <c r="G2" s="14"/>
       <c r="H2" s="131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
@@ -11194,12 +11194,12 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="36">
       <c r="A3" s="50" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>38</v>
@@ -11208,13 +11208,13 @@
         <v>169</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="88"/>
       <c r="G3" s="14"/>
       <c r="H3" s="131" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -11337,12 +11337,12 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>203</v>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="81" customFormat="1">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="81" customFormat="1">
@@ -11564,7 +11564,7 @@
     </row>
     <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="23" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="183"/>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="23" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="183"/>
@@ -11600,7 +11600,7 @@
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="78"/>
       <c r="C15" s="183"/>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>6</v>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="K2" s="80"/>
       <c r="L2" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -11868,7 +11868,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -11891,9 +11891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
@@ -12022,7 +12022,7 @@
         <v>169</v>
       </c>
       <c r="D4" s="183" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>297</v>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="K5" s="185"/>
       <c r="L5" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24">
@@ -12102,7 +12102,7 @@
       </c>
       <c r="K6" s="185"/>
       <c r="L6" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="K10" s="185"/>
       <c r="L10" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="K11" s="185"/>
       <c r="L11" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="K14" s="126"/>
       <c r="L14" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="K15" s="185"/>
       <c r="L15" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="K16" s="185"/>
       <c r="L16" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="K17" s="126"/>
       <c r="L17" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="K18" s="185"/>
       <c r="L18" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="K19" s="185"/>
       <c r="L19" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="K20" s="185"/>
       <c r="L20" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="K21" s="185"/>
       <c r="L21" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="K22" s="185"/>
       <c r="L22" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="K23" s="185"/>
       <c r="L23" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="24">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="K25" s="185"/>
       <c r="L25" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12695,12 +12695,12 @@
       </c>
       <c r="K26" s="185"/>
       <c r="L26" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="152" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B27" s="185" t="s">
         <v>5</v>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="K27" s="185"/>
       <c r="L27" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="K29" s="185"/>
       <c r="L29" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="K30" s="185"/>
       <c r="L30" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="K34" s="185"/>
       <c r="L34" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="K35" s="185"/>
       <c r="L35" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="K36" s="185"/>
       <c r="L36" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="K37" s="185"/>
       <c r="L37" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="24">
@@ -13057,7 +13057,7 @@
       </c>
       <c r="K38" s="185"/>
       <c r="L38" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="K39" s="185"/>
       <c r="L39" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="K40" s="185"/>
       <c r="L40" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="K41" s="185"/>
       <c r="L41" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="K42" s="185"/>
       <c r="L42" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="K43" s="185"/>
       <c r="L43" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="36">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="K44" s="185"/>
       <c r="L44" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="K46" s="185"/>
       <c r="L46" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -13331,12 +13331,12 @@
       </c>
       <c r="K47" s="185"/>
       <c r="L47" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="152" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B48" s="185" t="s">
         <v>5</v>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="K48" s="185"/>
       <c r="L48" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="K49" s="185"/>
       <c r="L49" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -13423,7 +13423,7 @@
       </c>
       <c r="K50" s="185"/>
       <c r="L50" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="K51" s="185"/>
       <c r="L51" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="K55" s="185"/>
       <c r="L55" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="K57" s="185"/>
       <c r="L57" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="48">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="K58" s="185"/>
       <c r="L58" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="48">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="K59" s="185"/>
       <c r="L59" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="K60" s="185"/>
       <c r="L60" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="K61" s="185"/>
       <c r="L61" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="48">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="K62" s="185"/>
       <c r="L62" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="K63" s="185"/>
       <c r="L63" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="K64" s="185"/>
       <c r="L64" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="48">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="K65" s="185"/>
       <c r="L65" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="36">
@@ -13894,7 +13894,7 @@
         <v>0.71</v>
       </c>
       <c r="E66" s="183" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F66" s="185">
         <v>150</v>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="K66" s="185"/>
       <c r="L66" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="36">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="K67" s="185"/>
       <c r="L67" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="48">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="K68" s="185"/>
       <c r="L68" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="48">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="K69" s="185"/>
       <c r="L69" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="K70" s="185"/>
       <c r="L70" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="K71" s="185"/>
       <c r="L71" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="K72" s="185"/>
       <c r="L72" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="K73" s="185"/>
       <c r="L73" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="48">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="K74" s="185"/>
       <c r="L74" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="48">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="K75" s="185"/>
       <c r="L75" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36">
@@ -14198,7 +14198,7 @@
         <v>0.71</v>
       </c>
       <c r="E76" s="183" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F76" s="185"/>
       <c r="G76" s="189" t="s">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="K76" s="185"/>
       <c r="L76" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="K77" s="185"/>
       <c r="L77" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K78" s="185"/>
       <c r="L78" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="K79" s="185"/>
       <c r="L79" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="K80" s="185"/>
       <c r="L80" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="K81" s="185"/>
       <c r="L81" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="K82" s="185"/>
       <c r="L82" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="K83" s="185"/>
       <c r="L83" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="K84" s="185"/>
       <c r="L84" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="K85" s="185"/>
       <c r="L85" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="K86" s="185"/>
       <c r="L86" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="K87" s="185"/>
       <c r="L87" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="K88" s="185"/>
       <c r="L88" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="K89" s="185"/>
       <c r="L89" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="K90" s="185"/>
       <c r="L90" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="K91" s="185"/>
       <c r="L91" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -14718,7 +14718,7 @@
       </c>
       <c r="K92" s="185"/>
       <c r="L92" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="K93" s="185"/>
       <c r="L93" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -14780,7 +14780,7 @@
       </c>
       <c r="K94" s="185"/>
       <c r="L94" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="K95" s="185"/>
       <c r="L95" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -14842,12 +14842,12 @@
       </c>
       <c r="K96" s="185"/>
       <c r="L96" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="24">
       <c r="A97" s="152" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B97" s="184" t="s">
         <v>44</v>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="K97" s="185"/>
       <c r="L97" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="24">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="K98" s="185"/>
       <c r="L98" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="24">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="K99" s="185"/>
       <c r="L99" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="24">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="K100" s="185"/>
       <c r="L100" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="24">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="K101" s="185"/>
       <c r="L101" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="36">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="K102" s="185"/>
       <c r="L102" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="24">
@@ -15060,7 +15060,7 @@
         <v>43</v>
       </c>
       <c r="G103" s="184" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H103" s="185"/>
       <c r="I103" s="185"/>
@@ -15069,7 +15069,7 @@
       </c>
       <c r="K103" s="185"/>
       <c r="L103" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="24">
@@ -15101,7 +15101,7 @@
       </c>
       <c r="K104" s="185"/>
       <c r="L104" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="24">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="K105" s="185"/>
       <c r="L105" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="24">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="K106" s="185"/>
       <c r="L106" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="K107" s="185"/>
       <c r="L107" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -15242,7 +15242,7 @@
     </row>
     <row r="109" spans="1:12" ht="36">
       <c r="A109" s="152" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B109" s="184" t="s">
         <v>58</v>
@@ -15269,12 +15269,12 @@
       </c>
       <c r="K109" s="185"/>
       <c r="L109" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="24">
       <c r="A110" s="152" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B110" s="184" t="s">
         <v>58</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="111" spans="1:12" ht="24">
       <c r="A111" s="152" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B111" s="183"/>
       <c r="C111" s="183" t="s">
@@ -15331,12 +15331,12 @@
       </c>
       <c r="K111" s="185"/>
       <c r="L111" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="36">
       <c r="A112" s="152" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B112" s="184" t="s">
         <v>58</v>
@@ -15365,12 +15365,12 @@
       </c>
       <c r="K112" s="185"/>
       <c r="L112" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="152" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B113" s="183" t="s">
         <v>323</v>
@@ -15397,12 +15397,12 @@
       </c>
       <c r="K113" s="185"/>
       <c r="L113" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="152" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B114" s="183" t="s">
         <v>323</v>
@@ -15429,12 +15429,12 @@
       </c>
       <c r="K114" s="185"/>
       <c r="L114" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="152" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B115" s="183" t="s">
         <v>323</v>
@@ -15461,12 +15461,12 @@
       </c>
       <c r="K115" s="185"/>
       <c r="L115" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="36">
       <c r="A116" s="152" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B116" s="184" t="s">
         <v>58</v>
@@ -15493,12 +15493,12 @@
       </c>
       <c r="K116" s="185"/>
       <c r="L116" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="24">
       <c r="A117" s="152" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B117" s="183" t="s">
         <v>323</v>
@@ -15510,7 +15510,7 @@
         <v>805</v>
       </c>
       <c r="E117" s="174" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F117" s="191">
         <v>160</v>
@@ -15525,12 +15525,12 @@
       </c>
       <c r="K117" s="185"/>
       <c r="L117" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="152" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B118" s="183" t="s">
         <v>323</v>
@@ -15542,7 +15542,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="174" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F118" s="191">
         <v>160</v>
@@ -15557,12 +15557,12 @@
       </c>
       <c r="K118" s="185"/>
       <c r="L118" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="24">
       <c r="A119" s="152" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B119" s="183" t="s">
         <v>323</v>
@@ -15571,10 +15571,10 @@
         <v>169</v>
       </c>
       <c r="D119" s="183" t="s">
-        <v>806</v>
+        <v>1123</v>
       </c>
       <c r="E119" s="174" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F119" s="191">
         <v>160</v>
@@ -15589,12 +15589,12 @@
       </c>
       <c r="K119" s="185"/>
       <c r="L119" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="36">
       <c r="A120" s="152" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B120" s="184" t="s">
         <v>58</v>
@@ -15621,12 +15621,12 @@
       </c>
       <c r="K120" s="185"/>
       <c r="L120" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="24">
       <c r="A121" s="152" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B121" s="183" t="s">
         <v>34</v>
@@ -15653,12 +15653,12 @@
       </c>
       <c r="K121" s="185"/>
       <c r="L121" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="24">
       <c r="A122" s="152" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B122" s="183" t="s">
         <v>34</v>
@@ -15685,12 +15685,12 @@
       </c>
       <c r="K122" s="185"/>
       <c r="L122" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="152" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B123" s="183" t="s">
         <v>34</v>
@@ -15717,12 +15717,12 @@
       </c>
       <c r="K123" s="185"/>
       <c r="L123" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="48">
       <c r="A124" s="152" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B124" s="184" t="s">
         <v>58</v>
@@ -15749,12 +15749,12 @@
       </c>
       <c r="K124" s="185"/>
       <c r="L124" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="24">
       <c r="A125" s="152" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B125" s="183" t="s">
         <v>323</v>
@@ -15781,12 +15781,12 @@
       </c>
       <c r="K125" s="185"/>
       <c r="L125" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="152" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B126" s="183" t="s">
         <v>323</v>
@@ -15813,12 +15813,12 @@
       </c>
       <c r="K126" s="185"/>
       <c r="L126" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="152" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B127" s="183"/>
       <c r="C127" s="183" t="s">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="K127" s="185"/>
       <c r="L127" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="152" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B128" s="183" t="s">
         <v>323</v>
@@ -15872,12 +15872,12 @@
       </c>
       <c r="K128" s="185"/>
       <c r="L128" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="24">
       <c r="A129" s="152" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B129" s="183"/>
       <c r="C129" s="183" t="s">
@@ -15901,12 +15901,12 @@
       </c>
       <c r="K129" s="185"/>
       <c r="L129" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="36">
       <c r="A130" s="152" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B130" s="184" t="s">
         <v>58</v>
@@ -15931,12 +15931,12 @@
       </c>
       <c r="K130" s="185"/>
       <c r="L130" s="185" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="36">
       <c r="A131" s="152" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B131" s="184" t="s">
         <v>58</v>
@@ -15963,12 +15963,12 @@
       </c>
       <c r="K131" s="185"/>
       <c r="L131" s="185" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="152" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B132" s="183" t="s">
         <v>323</v>
@@ -15995,12 +15995,12 @@
       </c>
       <c r="K132" s="185"/>
       <c r="L132" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="152" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B133" s="183" t="s">
         <v>323</v>
@@ -16027,12 +16027,12 @@
       </c>
       <c r="K133" s="185"/>
       <c r="L133" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="152" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B134" s="183"/>
       <c r="C134" s="183" t="s">
@@ -16054,12 +16054,12 @@
       </c>
       <c r="K134" s="185"/>
       <c r="L134" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="152" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B135" s="183" t="s">
         <v>323</v>
@@ -16086,12 +16086,12 @@
       </c>
       <c r="K135" s="185"/>
       <c r="L135" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="36">
       <c r="A136" s="152" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B136" s="184" t="s">
         <v>58</v>
@@ -16118,12 +16118,12 @@
       </c>
       <c r="K136" s="185"/>
       <c r="L136" s="185" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="152" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B137" s="183" t="s">
         <v>323</v>
@@ -16150,12 +16150,12 @@
       </c>
       <c r="K137" s="185"/>
       <c r="L137" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="152" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B138" s="183" t="s">
         <v>323</v>
@@ -16182,12 +16182,12 @@
       </c>
       <c r="K138" s="185"/>
       <c r="L138" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="152" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B139" s="183"/>
       <c r="C139" s="183" t="s">
@@ -16209,12 +16209,12 @@
       </c>
       <c r="K139" s="185"/>
       <c r="L139" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="152" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B140" s="183" t="s">
         <v>323</v>
@@ -16241,12 +16241,12 @@
       </c>
       <c r="K140" s="185"/>
       <c r="L140" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="36">
       <c r="A141" s="152" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B141" s="184" t="s">
         <v>58</v>
@@ -16273,12 +16273,12 @@
       </c>
       <c r="K141" s="185"/>
       <c r="L141" s="185" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="152" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B142" s="183" t="s">
         <v>34</v>
@@ -16303,12 +16303,12 @@
       </c>
       <c r="K142" s="185"/>
       <c r="L142" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="152" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B143" s="183" t="s">
         <v>34</v>
@@ -16333,12 +16333,12 @@
       </c>
       <c r="K143" s="185"/>
       <c r="L143" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="152" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B144" s="183" t="s">
         <v>34</v>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="K144" s="185"/>
       <c r="L144" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="145" spans="1:12" s="81" customFormat="1" ht="15">
@@ -19305,7 +19305,7 @@
     </row>
     <row r="2" spans="1:24" ht="48">
       <c r="A2" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>5</v>
@@ -19314,15 +19314,15 @@
         <v>169</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="E2" s="183" t="s">
         <v>924</v>
-      </c>
-      <c r="E2" s="183" t="s">
-        <v>925</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="106" t="s">
@@ -19347,7 +19347,7 @@
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="152" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B3" s="174" t="s">
         <v>5</v>
@@ -19362,10 +19362,10 @@
         <v>95</v>
       </c>
       <c r="F3" s="191" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G3" s="191" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H3" s="184"/>
       <c r="I3" s="38"/>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B5" s="174"/>
       <c r="C5" s="155"/>
@@ -19429,7 +19429,7 @@
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>24</v>
@@ -19466,7 +19466,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>246</v>
@@ -19489,7 +19489,7 @@
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1">
       <c r="A8" s="68" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>24</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="12" spans="1:24" s="81" customFormat="1">
       <c r="A12" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
@@ -21642,7 +21642,7 @@
         <v>74</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>384</v>
@@ -21681,7 +21681,7 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="73" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="73" customFormat="1">
@@ -21742,14 +21742,14 @@
         <v>114</v>
       </c>
       <c r="I4" s="183" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J4" s="102" t="s">
         <v>623</v>
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="73" customFormat="1" ht="24">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="K5" s="185"/>
       <c r="L5" s="185" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="73" customFormat="1">
@@ -21813,7 +21813,7 @@
       </c>
       <c r="K6" s="185"/>
       <c r="L6" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="81" customFormat="1">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="185" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="81" customFormat="1">
@@ -21875,12 +21875,12 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="81" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B9" s="174" t="s">
         <v>20</v>
@@ -21889,7 +21889,7 @@
         <v>169</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>589</v>
@@ -21903,12 +21903,12 @@
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="81" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B10" s="174" t="s">
         <v>20</v>
@@ -21927,12 +21927,12 @@
       </c>
       <c r="K10" s="185"/>
       <c r="L10" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="81" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B11" s="174" t="s">
         <v>20</v>
@@ -21951,12 +21951,12 @@
       </c>
       <c r="K11" s="185"/>
       <c r="L11" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="81" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B12" s="174" t="s">
         <v>20</v>
@@ -21975,12 +21975,12 @@
       </c>
       <c r="K12" s="185"/>
       <c r="L12" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B13" s="174" t="s">
         <v>457</v>
@@ -21999,12 +21999,12 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B14" s="174" t="s">
         <v>763</v>
@@ -22023,12 +22023,12 @@
       </c>
       <c r="K14" s="185"/>
       <c r="L14" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B15" s="174" t="s">
         <v>457</v>
@@ -22047,12 +22047,12 @@
       </c>
       <c r="K15" s="185"/>
       <c r="L15" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="81" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B16" s="174" t="s">
         <v>763</v>
@@ -22071,12 +22071,12 @@
       </c>
       <c r="K16" s="185"/>
       <c r="L16" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="81" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B17" s="174" t="s">
         <v>457</v>
@@ -22095,12 +22095,12 @@
       </c>
       <c r="K17" s="185"/>
       <c r="L17" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="81" customFormat="1">
       <c r="A18" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B18" s="174" t="s">
         <v>763</v>
@@ -22119,12 +22119,12 @@
       </c>
       <c r="K18" s="185"/>
       <c r="L18" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="81" customFormat="1">
       <c r="A19" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B19" s="174" t="s">
         <v>376</v>
@@ -22143,12 +22143,12 @@
       </c>
       <c r="K19" s="185"/>
       <c r="L19" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="81" customFormat="1">
       <c r="A20" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B20" s="174" t="s">
         <v>12</v>
@@ -22167,12 +22167,12 @@
       </c>
       <c r="K20" s="185"/>
       <c r="L20" s="185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="59" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>1</v>
@@ -22196,7 +22196,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J21" s="66" t="s">
         <v>384</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="22" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A22" s="141" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B22" s="103" t="s">
         <v>7</v>
@@ -22222,10 +22222,10 @@
         <v>2127.6</v>
       </c>
       <c r="E22" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F22" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G22" s="158"/>
       <c r="H22" s="165" t="s">
@@ -22239,12 +22239,12 @@
       </c>
       <c r="K22" s="103"/>
       <c r="L22" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A23" s="141" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B23" s="103" t="s">
         <v>7</v>
@@ -22256,10 +22256,10 @@
         <v>267.92</v>
       </c>
       <c r="E23" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F23" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="165" t="s">
@@ -22273,12 +22273,12 @@
       </c>
       <c r="K23" s="103"/>
       <c r="L23" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A24" s="141" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B24" s="103" t="s">
         <v>7</v>
@@ -22290,10 +22290,10 @@
         <v>808</v>
       </c>
       <c r="E24" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F24" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G24" s="158"/>
       <c r="H24" s="165" t="s">
@@ -22307,12 +22307,12 @@
       </c>
       <c r="K24" s="103"/>
       <c r="L24" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A25" s="141" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B25" s="103" t="s">
         <v>7</v>
@@ -22324,10 +22324,10 @@
         <v>2795.68</v>
       </c>
       <c r="E25" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F25" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G25" s="158"/>
       <c r="H25" s="165" t="s">
@@ -22341,12 +22341,12 @@
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A26" s="141" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B26" s="103" t="s">
         <v>7</v>
@@ -22358,10 +22358,10 @@
         <v>234.9</v>
       </c>
       <c r="E26" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F26" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G26" s="158"/>
       <c r="H26" s="165" t="s">
@@ -22375,12 +22375,12 @@
       </c>
       <c r="K26" s="103"/>
       <c r="L26" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A27" s="141" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B27" s="103" t="s">
         <v>7</v>
@@ -22392,10 +22392,10 @@
         <v>899</v>
       </c>
       <c r="E27" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F27" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G27" s="158"/>
       <c r="H27" s="165" t="s">
@@ -22409,12 +22409,12 @@
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A28" s="141" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B28" s="103" t="s">
         <v>7</v>
@@ -22426,10 +22426,10 @@
         <v>287.64</v>
       </c>
       <c r="E28" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F28" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G28" s="158"/>
       <c r="H28" s="165" t="s">
@@ -22443,12 +22443,12 @@
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A29" s="141" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B29" s="103" t="s">
         <v>7</v>
@@ -22460,10 +22460,10 @@
         <v>484.5</v>
       </c>
       <c r="E29" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F29" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G29" s="158"/>
       <c r="H29" s="165" t="s">
@@ -22477,12 +22477,12 @@
       </c>
       <c r="K29" s="103"/>
       <c r="L29" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A30" s="141" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B30" s="103" t="s">
         <v>7</v>
@@ -22494,10 +22494,10 @@
         <v>42.314999999999998</v>
       </c>
       <c r="E30" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F30" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G30" s="158"/>
       <c r="H30" s="165" t="s">
@@ -22511,12 +22511,12 @@
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A31" s="141" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B31" s="103" t="s">
         <v>7</v>
@@ -22528,10 +22528,10 @@
         <v>74.864999999999995</v>
       </c>
       <c r="E31" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F31" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G31" s="158"/>
       <c r="H31" s="165" t="s">
@@ -22545,12 +22545,12 @@
       </c>
       <c r="K31" s="103"/>
       <c r="L31" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A32" s="141" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B32" s="103" t="s">
         <v>7</v>
@@ -22562,10 +22562,10 @@
         <v>42.314999999999998</v>
       </c>
       <c r="E32" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F32" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G32" s="158"/>
       <c r="H32" s="165" t="s">
@@ -22579,12 +22579,12 @@
       </c>
       <c r="K32" s="103"/>
       <c r="L32" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A33" s="141" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B33" s="103" t="s">
         <v>7</v>
@@ -22596,10 +22596,10 @@
         <v>74.864999999999995</v>
       </c>
       <c r="E33" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F33" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G33" s="158"/>
       <c r="H33" s="165" t="s">
@@ -22613,12 +22613,12 @@
       </c>
       <c r="K33" s="103"/>
       <c r="L33" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A34" s="141" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B34" s="103" t="s">
         <v>7</v>
@@ -22630,10 +22630,10 @@
         <v>289.8</v>
       </c>
       <c r="E34" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F34" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G34" s="158"/>
       <c r="H34" s="165" t="s">
@@ -22647,12 +22647,12 @@
       </c>
       <c r="K34" s="103"/>
       <c r="L34" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A35" s="141" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B35" s="103" t="s">
         <v>7</v>
@@ -22664,10 +22664,10 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="E35" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F35" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="165" t="s">
@@ -22681,12 +22681,12 @@
       </c>
       <c r="K35" s="103"/>
       <c r="L35" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A36" s="141" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B36" s="103" t="s">
         <v>7</v>
@@ -22698,10 +22698,10 @@
         <v>84</v>
       </c>
       <c r="E36" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F36" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G36" s="158"/>
       <c r="H36" s="165" t="s">
@@ -22715,12 +22715,12 @@
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A37" s="141" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B37" s="103" t="s">
         <v>7</v>
@@ -22732,10 +22732,10 @@
         <v>111.5</v>
       </c>
       <c r="E37" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F37" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G37" s="158"/>
       <c r="H37" s="165" t="s">
@@ -22749,12 +22749,12 @@
       </c>
       <c r="K37" s="103"/>
       <c r="L37" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A38" s="141" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B38" s="103" t="s">
         <v>7</v>
@@ -22766,10 +22766,10 @@
         <v>84</v>
       </c>
       <c r="E38" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F38" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G38" s="158"/>
       <c r="H38" s="165" t="s">
@@ -22783,12 +22783,12 @@
       </c>
       <c r="K38" s="103"/>
       <c r="L38" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A39" s="141" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B39" s="103" t="s">
         <v>7</v>
@@ -22800,10 +22800,10 @@
         <v>111.5</v>
       </c>
       <c r="E39" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F39" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G39" s="158"/>
       <c r="H39" s="165" t="s">
@@ -22817,12 +22817,12 @@
       </c>
       <c r="K39" s="103"/>
       <c r="L39" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A40" s="141" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B40" s="103" t="s">
         <v>7</v>
@@ -22834,10 +22834,10 @@
         <v>3422</v>
       </c>
       <c r="E40" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F40" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G40" s="158"/>
       <c r="H40" s="165" t="s">
@@ -22851,12 +22851,12 @@
       </c>
       <c r="K40" s="103"/>
       <c r="L40" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A41" s="141" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B41" s="103" t="s">
         <v>7</v>
@@ -22868,10 +22868,10 @@
         <v>18270</v>
       </c>
       <c r="E41" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F41" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G41" s="158"/>
       <c r="H41" s="165" t="s">
@@ -22885,12 +22885,12 @@
       </c>
       <c r="K41" s="103"/>
       <c r="L41" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="141" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B42" s="156" t="s">
         <v>457</v>
@@ -22913,12 +22913,12 @@
       </c>
       <c r="K42" s="185"/>
       <c r="L42" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="141" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B43" s="156" t="s">
         <v>457</v>
@@ -22943,12 +22943,12 @@
       </c>
       <c r="K43" s="185"/>
       <c r="L43" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A44" s="141" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B44" s="103" t="s">
         <v>7</v>
@@ -22960,10 +22960,10 @@
         <v>105.6</v>
       </c>
       <c r="E44" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F44" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G44" s="158"/>
       <c r="H44" s="165" t="s">
@@ -22977,12 +22977,12 @@
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A45" s="141" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B45" s="103" t="s">
         <v>7</v>
@@ -22994,10 +22994,10 @@
         <v>150.47999999999999</v>
       </c>
       <c r="E45" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F45" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G45" s="158"/>
       <c r="H45" s="165" t="s">
@@ -23011,12 +23011,12 @@
       </c>
       <c r="K45" s="103"/>
       <c r="L45" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A46" s="141" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B46" s="103" t="s">
         <v>7</v>
@@ -23028,10 +23028,10 @@
         <v>1260.5999999999999</v>
       </c>
       <c r="E46" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F46" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G46" s="158"/>
       <c r="H46" s="165" t="s">
@@ -23045,12 +23045,12 @@
       </c>
       <c r="K46" s="103"/>
       <c r="L46" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A47" s="141" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B47" s="103" t="s">
         <v>7</v>
@@ -23062,10 +23062,10 @@
         <v>960.3</v>
       </c>
       <c r="E47" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F47" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G47" s="158"/>
       <c r="H47" s="165" t="s">
@@ -23079,12 +23079,12 @@
       </c>
       <c r="K47" s="103"/>
       <c r="L47" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A48" s="141" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B48" s="103" t="s">
         <v>7</v>
@@ -23096,10 +23096,10 @@
         <v>31.05</v>
       </c>
       <c r="E48" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F48" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G48" s="158"/>
       <c r="H48" s="165" t="s">
@@ -23113,12 +23113,12 @@
       </c>
       <c r="K48" s="103"/>
       <c r="L48" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A49" s="141" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B49" s="103" t="s">
         <v>7</v>
@@ -23130,10 +23130,10 @@
         <v>86.85</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F49" s="190" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G49" s="158"/>
       <c r="H49" s="165" t="s">
@@ -23147,7 +23147,7 @@
       </c>
       <c r="K49" s="103"/>
       <c r="L49" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -23190,7 +23190,7 @@
     </row>
     <row r="51" spans="1:12" ht="24.75">
       <c r="A51" s="141" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B51" s="156" t="s">
         <v>457</v>
@@ -23211,16 +23211,16 @@
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K51" s="185"/>
       <c r="L51" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="141" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B52" s="156" t="s">
         <v>457</v>
@@ -23239,16 +23239,16 @@
         <v>786</v>
       </c>
       <c r="J52" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K52" s="185"/>
       <c r="L52" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="141" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B53" s="156" t="s">
         <v>457</v>
@@ -23271,16 +23271,16 @@
         <v>114</v>
       </c>
       <c r="J53" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K53" s="185"/>
       <c r="L53" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="141" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B54" s="156" t="s">
         <v>457</v>
@@ -23303,16 +23303,16 @@
         <v>104</v>
       </c>
       <c r="J54" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K54" s="185"/>
       <c r="L54" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24">
       <c r="A55" s="141" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B55" s="169" t="s">
         <v>457</v>
@@ -23331,16 +23331,16 @@
       </c>
       <c r="I55" s="183"/>
       <c r="J55" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K55" s="185"/>
       <c r="L55" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="141" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B56" s="156" t="s">
         <v>457</v>
@@ -23352,7 +23352,7 @@
         <v>102</v>
       </c>
       <c r="E56" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F56" s="158" t="s">
         <v>590</v>
@@ -23361,16 +23361,16 @@
       <c r="H56" s="90"/>
       <c r="I56" s="14"/>
       <c r="J56" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K56" s="185"/>
       <c r="L56" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="36.75">
       <c r="A57" s="141" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B57" s="169"/>
       <c r="C57" s="170"/>
@@ -23383,16 +23383,16 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K57" s="185"/>
       <c r="L57" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="72.75">
       <c r="A58" s="141" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B58" s="174" t="s">
         <v>579</v>
@@ -23415,16 +23415,16 @@
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K58" s="185"/>
       <c r="L58" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="141" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B59" s="156" t="s">
         <v>457</v>
@@ -23445,16 +23445,16 @@
       <c r="H59" s="90"/>
       <c r="I59" s="92"/>
       <c r="J59" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K59" s="185"/>
       <c r="L59" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="141" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B60" s="156" t="s">
         <v>457</v>
@@ -23473,16 +23473,16 @@
       </c>
       <c r="I60" s="88"/>
       <c r="J60" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K60" s="185"/>
       <c r="L60" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24.75">
       <c r="A61" s="141" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B61" s="184" t="s">
         <v>579</v>
@@ -23505,16 +23505,16 @@
       </c>
       <c r="I61" s="88"/>
       <c r="J61" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K61" s="185"/>
       <c r="L61" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="48.75">
       <c r="A62" s="141" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B62" s="156" t="s">
         <v>457</v>
@@ -23537,16 +23537,16 @@
       </c>
       <c r="I62" s="88"/>
       <c r="J62" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K62" s="185"/>
       <c r="L62" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24">
       <c r="A63" s="141" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B63" s="169"/>
       <c r="C63" s="170"/>
@@ -23559,16 +23559,16 @@
       </c>
       <c r="I63" s="88"/>
       <c r="J63" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K63" s="185"/>
       <c r="L63" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24">
       <c r="A64" s="141" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B64" s="156" t="s">
         <v>457</v>
@@ -23587,16 +23587,16 @@
       </c>
       <c r="I64" s="88"/>
       <c r="J64" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K64" s="185"/>
       <c r="L64" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="152" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B65" s="156" t="s">
         <v>457</v>
@@ -23617,16 +23617,16 @@
       <c r="H65" s="90"/>
       <c r="I65" s="88"/>
       <c r="J65" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K65" s="185"/>
       <c r="L65" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="141" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B66" s="156" t="s">
         <v>457</v>
@@ -23647,16 +23647,16 @@
       <c r="H66" s="90"/>
       <c r="I66" s="88"/>
       <c r="J66" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K66" s="185"/>
       <c r="L66" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="141" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B67" s="160" t="s">
         <v>457</v>
@@ -23673,16 +23673,16 @@
       </c>
       <c r="I67" s="88"/>
       <c r="J67" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K67" s="185"/>
       <c r="L67" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="36">
       <c r="A68" s="141" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B68" s="184" t="s">
         <v>10</v>
@@ -23703,16 +23703,16 @@
       </c>
       <c r="I68" s="88"/>
       <c r="J68" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K68" s="185"/>
       <c r="L68" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="24.75">
       <c r="A69" s="141" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B69" s="156" t="s">
         <v>457</v>
@@ -23731,16 +23731,16 @@
       </c>
       <c r="I69" s="88"/>
       <c r="J69" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K69" s="185"/>
       <c r="L69" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="141" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B70" s="156" t="s">
         <v>457</v>
@@ -23759,16 +23759,16 @@
       </c>
       <c r="I70" s="88"/>
       <c r="J70" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K70" s="185"/>
       <c r="L70" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="141" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B71" s="156" t="s">
         <v>457</v>
@@ -23789,16 +23789,16 @@
       <c r="H71" s="55"/>
       <c r="I71" s="88"/>
       <c r="J71" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K71" s="185"/>
       <c r="L71" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="141" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B72" s="156" t="s">
         <v>457</v>
@@ -23819,16 +23819,16 @@
       <c r="H72" s="55"/>
       <c r="I72" s="88"/>
       <c r="J72" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K72" s="185"/>
       <c r="L72" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24">
       <c r="A73" s="141" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B73" s="169" t="s">
         <v>457</v>
@@ -23847,16 +23847,16 @@
       </c>
       <c r="I73" s="88"/>
       <c r="J73" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K73" s="185"/>
       <c r="L73" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="141" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B74" s="156" t="s">
         <v>457</v>
@@ -23868,23 +23868,23 @@
         <v>4.5</v>
       </c>
       <c r="E74" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F74" s="158"/>
       <c r="G74" s="158"/>
       <c r="H74" s="90"/>
       <c r="I74" s="88"/>
       <c r="J74" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K74" s="185"/>
       <c r="L74" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="36.75">
       <c r="A75" s="141" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B75" s="156" t="s">
         <v>457</v>
@@ -23901,16 +23901,16 @@
       </c>
       <c r="I75" s="88"/>
       <c r="J75" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K75" s="185"/>
       <c r="L75" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="72.75">
       <c r="A76" s="141" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B76" s="174" t="s">
         <v>579</v>
@@ -23933,16 +23933,16 @@
       </c>
       <c r="I76" s="88"/>
       <c r="J76" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K76" s="185"/>
       <c r="L76" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="141" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B77" s="156" t="s">
         <v>457</v>
@@ -23963,16 +23963,16 @@
       <c r="H77" s="90"/>
       <c r="I77" s="92"/>
       <c r="J77" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K77" s="185"/>
       <c r="L77" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="141" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B78" s="156" t="s">
         <v>457</v>
@@ -23991,16 +23991,16 @@
       </c>
       <c r="I78" s="88"/>
       <c r="J78" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K78" s="185"/>
       <c r="L78" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="24.75">
       <c r="A79" s="141" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B79" s="184" t="s">
         <v>579</v>
@@ -24023,16 +24023,16 @@
       </c>
       <c r="I79" s="88"/>
       <c r="J79" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K79" s="185"/>
       <c r="L79" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="48.75">
       <c r="A80" s="141" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B80" s="156" t="s">
         <v>457</v>
@@ -24055,16 +24055,16 @@
       </c>
       <c r="I80" s="88"/>
       <c r="J80" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K80" s="185"/>
       <c r="L80" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="141" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B81" s="156" t="s">
         <v>457</v>
@@ -24079,16 +24079,16 @@
       <c r="H81" s="91"/>
       <c r="I81" s="88"/>
       <c r="J81" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K81" s="185"/>
       <c r="L81" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24">
       <c r="A82" s="141" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B82" s="156" t="s">
         <v>457</v>
@@ -24107,16 +24107,16 @@
       </c>
       <c r="I82" s="88"/>
       <c r="J82" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K82" s="185"/>
       <c r="L82" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="152" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B83" s="156" t="s">
         <v>457</v>
@@ -24137,16 +24137,16 @@
       <c r="H83" s="90"/>
       <c r="I83" s="88"/>
       <c r="J83" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K83" s="185"/>
       <c r="L83" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="141" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B84" s="156" t="s">
         <v>457</v>
@@ -24167,16 +24167,16 @@
       <c r="H84" s="90"/>
       <c r="I84" s="88"/>
       <c r="J84" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K84" s="185"/>
       <c r="L84" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="141" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B85" s="160" t="s">
         <v>457</v>
@@ -24193,16 +24193,16 @@
       </c>
       <c r="I85" s="88"/>
       <c r="J85" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K85" s="185"/>
       <c r="L85" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="36">
       <c r="A86" s="141" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B86" s="184" t="s">
         <v>10</v>
@@ -24223,16 +24223,16 @@
       </c>
       <c r="I86" s="88"/>
       <c r="J86" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K86" s="185"/>
       <c r="L86" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="141" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B87" s="156" t="s">
         <v>457</v>
@@ -24250,12 +24250,12 @@
         <v>590</v>
       </c>
       <c r="J87" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="141" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B88" s="156" t="s">
         <v>457</v>
@@ -24267,16 +24267,16 @@
         <v>102</v>
       </c>
       <c r="E88" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F88" s="191"/>
       <c r="J88" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="152" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B89" s="156" t="s">
         <v>457</v>
@@ -24294,12 +24294,12 @@
         <v>590</v>
       </c>
       <c r="J89" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="141" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B90" s="156" t="s">
         <v>457</v>
@@ -24317,12 +24317,12 @@
         <v>590</v>
       </c>
       <c r="J90" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="141" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B91" s="156" t="s">
         <v>457</v>
@@ -24340,12 +24340,12 @@
         <v>590</v>
       </c>
       <c r="J91" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="141" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B92" s="156" t="s">
         <v>457</v>
@@ -24357,16 +24357,16 @@
         <v>4.5</v>
       </c>
       <c r="E92" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F92" s="191"/>
       <c r="J92" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="152" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B93" s="156" t="s">
         <v>457</v>
@@ -24384,12 +24384,12 @@
         <v>590</v>
       </c>
       <c r="J93" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="141" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B94" s="156" t="s">
         <v>457</v>
@@ -24407,12 +24407,12 @@
         <v>590</v>
       </c>
       <c r="J94" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="141" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B95" s="156" t="s">
         <v>457</v>
@@ -24430,12 +24430,12 @@
         <v>590</v>
       </c>
       <c r="J95" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="141" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B96" s="156" t="s">
         <v>457</v>
@@ -24447,16 +24447,16 @@
         <v>102</v>
       </c>
       <c r="E96" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F96" s="191"/>
       <c r="J96" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="152" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B97" s="156" t="s">
         <v>457</v>
@@ -24474,12 +24474,12 @@
         <v>590</v>
       </c>
       <c r="J97" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="141" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B98" s="156" t="s">
         <v>457</v>
@@ -24497,12 +24497,12 @@
         <v>590</v>
       </c>
       <c r="J98" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="141" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B99" s="156" t="s">
         <v>457</v>
@@ -24520,12 +24520,12 @@
         <v>590</v>
       </c>
       <c r="J99" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="141" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B100" s="156" t="s">
         <v>457</v>
@@ -24537,16 +24537,16 @@
         <v>4.5</v>
       </c>
       <c r="E100" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F100" s="191"/>
       <c r="J100" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="152" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B101" s="156" t="s">
         <v>457</v>
@@ -24564,12 +24564,12 @@
         <v>590</v>
       </c>
       <c r="J101" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="141" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B102" s="156" t="s">
         <v>457</v>
@@ -24587,12 +24587,12 @@
         <v>590</v>
       </c>
       <c r="J102" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="141" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B103" s="156" t="s">
         <v>457</v>
@@ -24610,12 +24610,12 @@
         <v>590</v>
       </c>
       <c r="J103" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="141" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B104" s="156" t="s">
         <v>457</v>
@@ -24627,16 +24627,16 @@
         <v>102</v>
       </c>
       <c r="E104" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F104" s="191"/>
       <c r="J104" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="152" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B105" s="156" t="s">
         <v>457</v>
@@ -24654,12 +24654,12 @@
         <v>590</v>
       </c>
       <c r="J105" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="141" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B106" s="156" t="s">
         <v>457</v>
@@ -24677,12 +24677,12 @@
         <v>590</v>
       </c>
       <c r="J106" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="141" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B107" s="156" t="s">
         <v>457</v>
@@ -24700,12 +24700,12 @@
         <v>590</v>
       </c>
       <c r="J107" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="141" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B108" s="156" t="s">
         <v>457</v>
@@ -24717,16 +24717,16 @@
         <v>4.5</v>
       </c>
       <c r="E108" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F108" s="191"/>
       <c r="J108" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="152" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B109" s="156" t="s">
         <v>457</v>
@@ -24744,12 +24744,12 @@
         <v>590</v>
       </c>
       <c r="J109" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="141" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B110" s="156" t="s">
         <v>457</v>
@@ -24767,12 +24767,12 @@
         <v>590</v>
       </c>
       <c r="J110" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="141" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B111" s="156" t="s">
         <v>457</v>
@@ -24790,12 +24790,12 @@
         <v>590</v>
       </c>
       <c r="J111" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="141" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B112" s="156" t="s">
         <v>457</v>
@@ -24807,16 +24807,16 @@
         <v>102</v>
       </c>
       <c r="E112" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F112" s="191"/>
       <c r="J112" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="152" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B113" s="156" t="s">
         <v>457</v>
@@ -24834,12 +24834,12 @@
         <v>590</v>
       </c>
       <c r="J113" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="141" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B114" s="156" t="s">
         <v>457</v>
@@ -24857,12 +24857,12 @@
         <v>590</v>
       </c>
       <c r="J114" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="141" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B115" s="156" t="s">
         <v>457</v>
@@ -24880,12 +24880,12 @@
         <v>590</v>
       </c>
       <c r="J115" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="141" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B116" s="156" t="s">
         <v>457</v>
@@ -24897,16 +24897,16 @@
         <v>4.5</v>
       </c>
       <c r="E116" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F116" s="191"/>
       <c r="J116" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="152" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B117" s="156" t="s">
         <v>457</v>
@@ -24924,12 +24924,12 @@
         <v>590</v>
       </c>
       <c r="J117" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="141" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B118" s="156" t="s">
         <v>457</v>
@@ -24947,12 +24947,12 @@
         <v>590</v>
       </c>
       <c r="J118" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="141" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B119" s="156" t="s">
         <v>457</v>
@@ -24970,12 +24970,12 @@
         <v>590</v>
       </c>
       <c r="J119" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="141" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B120" s="156" t="s">
         <v>457</v>
@@ -24987,16 +24987,16 @@
         <v>102</v>
       </c>
       <c r="E120" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F120" s="191"/>
       <c r="J120" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="152" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B121" s="156" t="s">
         <v>457</v>
@@ -25014,12 +25014,12 @@
         <v>590</v>
       </c>
       <c r="J121" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="141" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B122" s="156" t="s">
         <v>457</v>
@@ -25037,12 +25037,12 @@
         <v>590</v>
       </c>
       <c r="J122" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="141" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B123" s="156" t="s">
         <v>457</v>
@@ -25060,12 +25060,12 @@
         <v>590</v>
       </c>
       <c r="J123" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="141" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B124" s="156" t="s">
         <v>457</v>
@@ -25077,16 +25077,16 @@
         <v>4.5</v>
       </c>
       <c r="E124" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F124" s="191"/>
       <c r="J124" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="152" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B125" s="156" t="s">
         <v>457</v>
@@ -25104,12 +25104,12 @@
         <v>590</v>
       </c>
       <c r="J125" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="141" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B126" s="156" t="s">
         <v>457</v>
@@ -25127,12 +25127,12 @@
         <v>590</v>
       </c>
       <c r="J126" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="141" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B127" s="156" t="s">
         <v>457</v>
@@ -25150,12 +25150,12 @@
         <v>590</v>
       </c>
       <c r="J127" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="141" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B128" s="156" t="s">
         <v>457</v>
@@ -25167,16 +25167,16 @@
         <v>102</v>
       </c>
       <c r="E128" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F128" s="191"/>
       <c r="J128" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="152" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B129" s="156" t="s">
         <v>457</v>
@@ -25194,12 +25194,12 @@
         <v>590</v>
       </c>
       <c r="J129" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="141" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B130" s="156" t="s">
         <v>457</v>
@@ -25217,12 +25217,12 @@
         <v>590</v>
       </c>
       <c r="J130" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="141" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B131" s="156" t="s">
         <v>457</v>
@@ -25240,12 +25240,12 @@
         <v>590</v>
       </c>
       <c r="J131" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="141" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B132" s="156" t="s">
         <v>457</v>
@@ -25257,16 +25257,16 @@
         <v>4.5</v>
       </c>
       <c r="E132" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F132" s="191"/>
       <c r="J132" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="152" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B133" s="156" t="s">
         <v>457</v>
@@ -25284,12 +25284,12 @@
         <v>590</v>
       </c>
       <c r="J133" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="141" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B134" s="156" t="s">
         <v>457</v>
@@ -25307,12 +25307,12 @@
         <v>590</v>
       </c>
       <c r="J134" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="141" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B135" s="156" t="s">
         <v>457</v>
@@ -25330,12 +25330,12 @@
         <v>590</v>
       </c>
       <c r="J135" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="141" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B136" s="156" t="s">
         <v>457</v>
@@ -25347,16 +25347,16 @@
         <v>102</v>
       </c>
       <c r="E136" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F136" s="191"/>
       <c r="J136" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="152" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B137" s="156" t="s">
         <v>457</v>
@@ -25374,12 +25374,12 @@
         <v>590</v>
       </c>
       <c r="J137" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="141" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B138" s="156" t="s">
         <v>457</v>
@@ -25397,12 +25397,12 @@
         <v>590</v>
       </c>
       <c r="J138" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="141" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B139" s="156" t="s">
         <v>457</v>
@@ -25420,12 +25420,12 @@
         <v>590</v>
       </c>
       <c r="J139" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="141" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B140" s="156" t="s">
         <v>457</v>
@@ -25437,16 +25437,16 @@
         <v>4.5</v>
       </c>
       <c r="E140" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F140" s="191"/>
       <c r="J140" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="152" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B141" s="156" t="s">
         <v>457</v>
@@ -25464,12 +25464,12 @@
         <v>590</v>
       </c>
       <c r="J141" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="141" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B142" s="156" t="s">
         <v>457</v>
@@ -25487,12 +25487,12 @@
         <v>590</v>
       </c>
       <c r="J142" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="141" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B143" s="156" t="s">
         <v>457</v>
@@ -25510,12 +25510,12 @@
         <v>590</v>
       </c>
       <c r="J143" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="141" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B144" s="156" t="s">
         <v>457</v>
@@ -25527,16 +25527,16 @@
         <v>102</v>
       </c>
       <c r="E144" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F144" s="191"/>
       <c r="J144" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="152" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B145" s="156" t="s">
         <v>457</v>
@@ -25554,12 +25554,12 @@
         <v>590</v>
       </c>
       <c r="J145" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="141" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B146" s="156" t="s">
         <v>457</v>
@@ -25577,12 +25577,12 @@
         <v>590</v>
       </c>
       <c r="J146" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="141" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B147" s="156" t="s">
         <v>457</v>
@@ -25600,12 +25600,12 @@
         <v>590</v>
       </c>
       <c r="J147" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="141" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B148" s="156" t="s">
         <v>457</v>
@@ -25617,16 +25617,16 @@
         <v>4.5</v>
       </c>
       <c r="E148" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F148" s="191"/>
       <c r="J148" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="152" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B149" s="156" t="s">
         <v>457</v>
@@ -25644,12 +25644,12 @@
         <v>590</v>
       </c>
       <c r="J149" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="141" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B150" s="156" t="s">
         <v>457</v>
@@ -25667,12 +25667,12 @@
         <v>590</v>
       </c>
       <c r="J150" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="141" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B151" s="156" t="s">
         <v>457</v>
@@ -25690,12 +25690,12 @@
         <v>590</v>
       </c>
       <c r="J151" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="141" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B152" s="156" t="s">
         <v>457</v>
@@ -25707,16 +25707,16 @@
         <v>102</v>
       </c>
       <c r="E152" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F152" s="191"/>
       <c r="J152" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="152" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B153" s="156" t="s">
         <v>457</v>
@@ -25734,12 +25734,12 @@
         <v>590</v>
       </c>
       <c r="J153" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="141" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B154" s="156" t="s">
         <v>457</v>
@@ -25757,12 +25757,12 @@
         <v>590</v>
       </c>
       <c r="J154" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="141" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B155" s="156" t="s">
         <v>457</v>
@@ -25780,12 +25780,12 @@
         <v>590</v>
       </c>
       <c r="J155" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="141" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B156" s="156" t="s">
         <v>457</v>
@@ -25797,16 +25797,16 @@
         <v>4.5</v>
       </c>
       <c r="E156" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F156" s="191"/>
       <c r="J156" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="152" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B157" s="156" t="s">
         <v>457</v>
@@ -25824,12 +25824,12 @@
         <v>590</v>
       </c>
       <c r="J157" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="141" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B158" s="156" t="s">
         <v>457</v>
@@ -25847,12 +25847,12 @@
         <v>590</v>
       </c>
       <c r="J158" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="141" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B159" s="156" t="s">
         <v>457</v>
@@ -25870,12 +25870,12 @@
         <v>590</v>
       </c>
       <c r="J159" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="141" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B160" s="156" t="s">
         <v>457</v>
@@ -25887,16 +25887,16 @@
         <v>102</v>
       </c>
       <c r="E160" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F160" s="191"/>
       <c r="J160" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="152" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B161" s="156" t="s">
         <v>457</v>
@@ -25914,12 +25914,12 @@
         <v>590</v>
       </c>
       <c r="J161" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="141" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B162" s="156" t="s">
         <v>457</v>
@@ -25937,12 +25937,12 @@
         <v>590</v>
       </c>
       <c r="J162" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="141" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B163" s="156" t="s">
         <v>457</v>
@@ -25960,12 +25960,12 @@
         <v>590</v>
       </c>
       <c r="J163" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="141" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B164" s="156" t="s">
         <v>457</v>
@@ -25977,16 +25977,16 @@
         <v>4.5</v>
       </c>
       <c r="E164" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F164" s="191"/>
       <c r="J164" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="152" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B165" s="156" t="s">
         <v>457</v>
@@ -26004,12 +26004,12 @@
         <v>590</v>
       </c>
       <c r="J165" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="141" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B166" s="156" t="s">
         <v>457</v>
@@ -26027,12 +26027,12 @@
         <v>590</v>
       </c>
       <c r="J166" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="141" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B167" s="156" t="s">
         <v>457</v>
@@ -26050,12 +26050,12 @@
         <v>590</v>
       </c>
       <c r="J167" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="141" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B168" s="156" t="s">
         <v>457</v>
@@ -26067,16 +26067,16 @@
         <v>102</v>
       </c>
       <c r="E168" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F168" s="191"/>
       <c r="J168" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="152" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B169" s="156" t="s">
         <v>457</v>
@@ -26094,12 +26094,12 @@
         <v>590</v>
       </c>
       <c r="J169" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="141" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B170" s="156" t="s">
         <v>457</v>
@@ -26117,12 +26117,12 @@
         <v>590</v>
       </c>
       <c r="J170" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="141" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B171" s="156" t="s">
         <v>457</v>
@@ -26140,12 +26140,12 @@
         <v>590</v>
       </c>
       <c r="J171" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="141" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B172" s="156" t="s">
         <v>457</v>
@@ -26157,16 +26157,16 @@
         <v>4.5</v>
       </c>
       <c r="E172" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F172" s="191"/>
       <c r="J172" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="152" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B173" s="156" t="s">
         <v>457</v>
@@ -26184,12 +26184,12 @@
         <v>590</v>
       </c>
       <c r="J173" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="141" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B174" s="156" t="s">
         <v>457</v>
@@ -26207,12 +26207,12 @@
         <v>590</v>
       </c>
       <c r="J174" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="141" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B175" s="156" t="s">
         <v>457</v>
@@ -26230,12 +26230,12 @@
         <v>590</v>
       </c>
       <c r="J175" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="141" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B176" s="156" t="s">
         <v>457</v>
@@ -26247,16 +26247,16 @@
         <v>102</v>
       </c>
       <c r="E176" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F176" s="191"/>
       <c r="J176" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="152" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B177" s="156" t="s">
         <v>457</v>
@@ -26274,12 +26274,12 @@
         <v>590</v>
       </c>
       <c r="J177" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="141" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B178" s="156" t="s">
         <v>457</v>
@@ -26297,12 +26297,12 @@
         <v>590</v>
       </c>
       <c r="J178" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="141" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B179" s="156" t="s">
         <v>457</v>
@@ -26320,12 +26320,12 @@
         <v>590</v>
       </c>
       <c r="J179" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="141" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B180" s="156" t="s">
         <v>457</v>
@@ -26337,16 +26337,16 @@
         <v>4.5</v>
       </c>
       <c r="E180" s="156" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F180" s="191"/>
       <c r="J180" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="152" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B181" s="156" t="s">
         <v>457</v>
@@ -26364,12 +26364,12 @@
         <v>590</v>
       </c>
       <c r="J181" s="103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="141" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B182" s="156" t="s">
         <v>457</v>
@@ -26387,7 +26387,7 @@
         <v>590</v>
       </c>
       <c r="J182" s="194" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="183" spans="1:10">
